--- a/data/IN/outputs/590009/t_set_test.xlsx
+++ b/data/IN/outputs/590009/t_set_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Row</t>
   </si>
@@ -671,7 +671,13 @@
     <t>t8</t>
   </si>
   <si>
-    <t>t8_check</t>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t10_check</t>
   </si>
 </sst>
 </file>
@@ -1023,15 +1029,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O102"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,8 +1083,14 @@
       <c r="O1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1092,28 +1104,34 @@
         <v>0.75462885297674687</v>
       </c>
       <c r="I2">
-        <v>0.66787084593164447</v>
+        <v>0.64854015800344822</v>
       </c>
       <c r="J2">
-        <v>0.55160640757767987</v>
+        <v>0.49948822616963207</v>
       </c>
       <c r="K2">
-        <v>0.39467212141718921</v>
+        <v>0.27018438925199073</v>
       </c>
       <c r="L2">
-        <v>0.14502533767676579</v>
+        <v>0.15387402293714578</v>
       </c>
       <c r="M2">
-        <v>4.0040985353331907E-2</v>
+        <v>5.1179984983108759E-2</v>
       </c>
       <c r="N2">
-        <v>2.3339268903441478E-2</v>
+        <v>1.3305736803106327E-2</v>
       </c>
       <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.2769090192219454E-3</v>
+      </c>
+      <c r="P2">
+        <v>5.7954311629668828E-4</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1127,28 +1145,34 @@
         <v>0.6932078332573256</v>
       </c>
       <c r="I3">
-        <v>0.60525115810165797</v>
+        <v>0.58944826220683588</v>
       </c>
       <c r="J3">
-        <v>0.4442130631810835</v>
+        <v>0.44005270006339631</v>
       </c>
       <c r="K3">
-        <v>0.29130446829458834</v>
+        <v>0.19582655916113997</v>
       </c>
       <c r="L3">
-        <v>8.9268109503111273E-2</v>
+        <v>8.1076011259551994E-2</v>
       </c>
       <c r="M3">
-        <v>2.4288824984192842E-2</v>
+        <v>2.6060728782983031E-2</v>
       </c>
       <c r="N3">
-        <v>1.557141376105961E-2</v>
+        <v>6.6450635958332721E-3</v>
       </c>
       <c r="O3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2558486531266367E-3</v>
+      </c>
+      <c r="P3">
+        <v>3.1673184874243056E-4</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1159,28 +1183,34 @@
         <v>0.10455898798793947</v>
       </c>
       <c r="I4">
-        <v>4.362280962456825E-2</v>
+        <v>4.2826740865724119E-2</v>
       </c>
       <c r="J4">
-        <v>1.4828936697371956E-2</v>
+        <v>1.4695143695941826E-2</v>
       </c>
       <c r="K4">
-        <v>4.4304825625461732E-3</v>
+        <v>4.6528844578715535E-3</v>
       </c>
       <c r="L4">
-        <v>1.1483146230270433E-3</v>
+        <v>2.2543135024382277E-3</v>
       </c>
       <c r="M4">
-        <v>3.6938896169368005E-4</v>
+        <v>5.8823876588010244E-4</v>
       </c>
       <c r="N4">
-        <v>1.614171025881479E-4</v>
+        <v>1.1514467386244328E-4</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.4064893313112513E-5</v>
+      </c>
+      <c r="P4">
+        <v>4.9866892632392129E-6</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1194,28 +1224,34 @@
         <v>0.99999983967958594</v>
       </c>
       <c r="I5">
-        <v>0.99999996993991846</v>
+        <v>0.99999998009815261</v>
       </c>
       <c r="J5">
-        <v>0.99999999663506534</v>
+        <v>0.99999999799549733</v>
       </c>
       <c r="K5">
-        <v>0.99999999956209762</v>
+        <v>0.99999999823603758</v>
       </c>
       <c r="L5">
-        <v>0.99999999966811615</v>
+        <v>0.99999999761865066</v>
       </c>
       <c r="M5">
-        <v>0.99999999969898912</v>
+        <v>0.99999999786499727</v>
       </c>
       <c r="N5">
-        <v>0.9999999999371022</v>
+        <v>0.999999999815948</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9999999999161906</v>
+      </c>
+      <c r="P5">
+        <v>0.99999999992013455</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1241,28 +1277,34 @@
         <v>0.8</v>
       </c>
       <c r="I6">
-        <v>0.99</v>
+        <v>0.96275071633237819</v>
       </c>
       <c r="J6">
-        <v>0.99905812701829921</v>
+        <v>0.99512634025642943</v>
       </c>
       <c r="K6">
-        <v>0.99989287955070627</v>
+        <v>0.9972092224464385</v>
       </c>
       <c r="L6">
-        <v>0.9999472363134766</v>
+        <v>0.99767326980763305</v>
       </c>
       <c r="M6">
-        <v>0.99996297226887432</v>
+        <v>0.99848639276047912</v>
       </c>
       <c r="N6">
-        <v>0.99999520802149811</v>
+        <v>0.99984045685604084</v>
       </c>
       <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99993195331509244</v>
+      </c>
+      <c r="P6">
+        <v>0.99993331415803544</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1276,28 +1318,34 @@
         <v>0.16627994432391707</v>
       </c>
       <c r="I7">
-        <v>8.6857352106167157E-2</v>
+        <v>9.7498850588925795E-2</v>
       </c>
       <c r="J7">
-        <v>4.161679362305877E-2</v>
+        <v>4.4686388211903016E-2</v>
       </c>
       <c r="K7">
-        <v>1.7705890448243413E-2</v>
+        <v>1.9844827116250029E-2</v>
       </c>
       <c r="L7">
-        <v>6.182569486143861E-3</v>
+        <v>1.275125133178185E-2</v>
       </c>
       <c r="M7">
-        <v>1.8358847986183337E-3</v>
+        <v>3.7714307161885322E-3</v>
       </c>
       <c r="N7">
-        <v>9.7615384895931008E-4</v>
+        <v>8.7962285048618196E-4</v>
       </c>
       <c r="O7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.9641369703203598E-4</v>
+      </c>
+      <c r="P7">
+        <v>4.8704805317609636E-5</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1311,28 +1359,34 @@
         <v>0.94711279748942501</v>
       </c>
       <c r="I8">
-        <v>0.94609165175921783</v>
+        <v>0.94590734223243977</v>
       </c>
       <c r="J8">
-        <v>0.93754938604722371</v>
+        <v>0.93451569431558867</v>
       </c>
       <c r="K8">
-        <v>0.92715680700122227</v>
+        <v>0.79558654155415887</v>
       </c>
       <c r="L8">
-        <v>0.80925881491900742</v>
+        <v>0.60888890977080645</v>
       </c>
       <c r="M8">
-        <v>0.5517119695276832</v>
+        <v>0.32930763500844823</v>
       </c>
       <c r="N8">
-        <v>0.51289361992587734</v>
+        <v>0.2007720768362331</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.6704191428404733E-2</v>
+      </c>
+      <c r="P8">
+        <v>0.01</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1346,28 +1400,34 @@
         <v>0.31427036675000142</v>
       </c>
       <c r="I9">
-        <v>0.18180758796737967</v>
+        <v>0.21118240900692928</v>
       </c>
       <c r="J9">
-        <v>9.5425324600965047E-2</v>
+        <v>0.11910744338095948</v>
       </c>
       <c r="K9">
-        <v>4.9221052052434246E-2</v>
+        <v>1.8731228446883564E-2</v>
       </c>
       <c r="L9">
-        <v>1.4974420434129547E-2</v>
+        <v>4.628311332661738E-3</v>
       </c>
       <c r="M9">
-        <v>5.5560407429926526E-3</v>
+        <v>1.3855275816141469E-3</v>
       </c>
       <c r="N9">
-        <v>3.3186256627503619E-3</v>
+        <v>5.0427282853133702E-4</v>
       </c>
       <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.5174532898892939E-4</v>
+      </c>
+      <c r="P9">
+        <v>4.215610032398389E-5</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1381,28 +1441,34 @@
         <v>0.3236090156064938</v>
       </c>
       <c r="I10">
-        <v>0.17219581220392549</v>
+        <v>0.23441946026758789</v>
       </c>
       <c r="J10">
-        <v>0.10748537845176667</v>
+        <v>0.14891477176252549</v>
       </c>
       <c r="K10">
-        <v>5.7767988692332177E-2</v>
+        <v>7.1661122684892886E-2</v>
       </c>
       <c r="L10">
-        <v>2.1291859134518906E-2</v>
+        <v>3.6076602742308748E-2</v>
       </c>
       <c r="M10">
-        <v>4.2383853710646806E-3</v>
+        <v>1.0620816236722347E-2</v>
       </c>
       <c r="N10">
-        <v>2.6743767483068427E-3</v>
+        <v>4.8327630937766855E-3</v>
       </c>
       <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.915304839857482E-4</v>
+      </c>
+      <c r="P10">
+        <v>2.5558235901612512E-4</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1416,28 +1482,34 @@
         <v>0.85251342342801217</v>
       </c>
       <c r="I11">
-        <v>0.76323608613226823</v>
+        <v>0.8230845922193849</v>
       </c>
       <c r="J11">
-        <v>0.7009970354832582</v>
+        <v>0.76602300396044043</v>
       </c>
       <c r="K11">
-        <v>0.596452306714082</v>
+        <v>0.55393652463680199</v>
       </c>
       <c r="L11">
-        <v>0.29867413717254937</v>
+        <v>0.2927586462547575</v>
       </c>
       <c r="M11">
-        <v>9.6953233585133747E-2</v>
+        <v>9.7337910459621257E-2</v>
       </c>
       <c r="N11">
-        <v>8.2498082200560957E-2</v>
+        <v>6.182456285555029E-2</v>
       </c>
       <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.580552604425095E-2</v>
+      </c>
+      <c r="P11">
+        <v>3.998783670651593E-3</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1451,28 +1523,34 @@
         <v>0.99993372286063387</v>
       </c>
       <c r="I12">
-        <v>0.9999796740765744</v>
+        <v>0.99998555423369118</v>
       </c>
       <c r="J12">
-        <v>0.99999179821215978</v>
+        <v>0.99999511061698587</v>
       </c>
       <c r="K12">
-        <v>0.99999679058873547</v>
+        <v>0.9999945791651913</v>
       </c>
       <c r="L12">
-        <v>0.99999759293962021</v>
+        <v>0.99999259594762824</v>
       </c>
       <c r="M12">
-        <v>0.99999754172569544</v>
+        <v>0.99999144421600217</v>
       </c>
       <c r="N12">
-        <v>0.99999920365629613</v>
+        <v>0.99999857402583336</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999912991358419</v>
+      </c>
+      <c r="P12">
+        <v>0.99999921521610702</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1486,28 +1564,34 @@
         <v>0.22499081826877279</v>
       </c>
       <c r="I13">
-        <v>0.13216468091939365</v>
+        <v>0.14702693027012362</v>
       </c>
       <c r="J13">
-        <v>6.7284668172211529E-2</v>
+        <v>7.5642230943920905E-2</v>
       </c>
       <c r="K13">
-        <v>3.3519442451884388E-2</v>
+        <v>3.1230163232228596E-2</v>
       </c>
       <c r="L13">
-        <v>1.0297448037388678E-2</v>
+        <v>1.0631401343642391E-2</v>
       </c>
       <c r="M13">
-        <v>2.9639286544724487E-3</v>
+        <v>4.1454699486650178E-3</v>
       </c>
       <c r="N13">
-        <v>1.60512556307458E-3</v>
+        <v>1.0890505440644784E-3</v>
       </c>
       <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.145677044038139E-4</v>
+      </c>
+      <c r="P13">
+        <v>7.7862643989278795E-5</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1521,28 +1605,34 @@
         <v>0.99999968444704601</v>
       </c>
       <c r="I14">
-        <v>0.9999999609990623</v>
+        <v>0.99999995545133569</v>
       </c>
       <c r="J14">
-        <v>0.99999999395760109</v>
+        <v>0.99999999436092835</v>
       </c>
       <c r="K14">
-        <v>0.99999999907586834</v>
+        <v>0.99999999566999853</v>
       </c>
       <c r="L14">
-        <v>0.99999999938391226</v>
+        <v>0.99999999520936012</v>
       </c>
       <c r="M14">
-        <v>0.99999999950941154</v>
+        <v>0.99999999647005477</v>
       </c>
       <c r="N14">
-        <v>0.99999999988678734</v>
+        <v>0.99999999982350274</v>
       </c>
       <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999992097133</v>
+      </c>
+      <c r="P14">
+        <v>0.99999999991935851</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1568,28 +1658,34 @@
         <v>0.33333333333333337</v>
       </c>
       <c r="I15">
-        <v>0.16216216216216217</v>
+        <v>0.17928286852589642</v>
       </c>
       <c r="J15">
-        <v>7.940606843124598E-2</v>
+        <v>8.2837450233314791E-2</v>
       </c>
       <c r="K15">
-        <v>3.2748434211527254E-2</v>
+        <v>3.0575702336164658E-2</v>
       </c>
       <c r="L15">
-        <v>8.6706075467518004E-3</v>
+        <v>1.691270944227391E-2</v>
       </c>
       <c r="M15">
-        <v>2.8034756006452819E-3</v>
+        <v>5.5526433164811255E-3</v>
       </c>
       <c r="N15">
-        <v>1.4621076380661514E-3</v>
+        <v>8.9258614914996756E-4</v>
       </c>
       <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.3055439830875031E-4</v>
+      </c>
+      <c r="P15">
+        <v>5.2469883536607729E-5</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1603,28 +1699,34 @@
         <v>0.99999928079837785</v>
       </c>
       <c r="I16">
-        <v>0.99999986169191546</v>
+        <v>0.99999988935352924</v>
       </c>
       <c r="J16">
-        <v>0.99999998348559982</v>
+        <v>0.99999998285758751</v>
       </c>
       <c r="K16">
-        <v>0.99999999772926995</v>
+        <v>0.99999998621884478</v>
       </c>
       <c r="L16">
-        <v>0.99999999843113196</v>
+        <v>0.99999998041625326</v>
       </c>
       <c r="M16">
-        <v>0.99999999859122057</v>
+        <v>0.99999998204823215</v>
       </c>
       <c r="N16">
-        <v>0.99999999971443665</v>
+        <v>0.99999999981866894</v>
       </c>
       <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999991810862</v>
+      </c>
+      <c r="P16">
+        <v>0.99999999992813626</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1638,28 +1740,34 @@
         <v>0.999999865538998</v>
       </c>
       <c r="I17">
-        <v>0.99999998505988685</v>
+        <v>0.99999998603002405</v>
       </c>
       <c r="J17">
-        <v>0.99999999841062626</v>
+        <v>0.99999999855483002</v>
       </c>
       <c r="K17">
-        <v>0.99999999987005117</v>
+        <v>0.9999999989351378</v>
       </c>
       <c r="L17">
-        <v>0.99999999992985067</v>
+        <v>0.99999999903752845</v>
       </c>
       <c r="M17">
-        <v>0.99999999995019395</v>
+        <v>0.9999999993234111</v>
       </c>
       <c r="N17">
-        <v>0.99999999999215383</v>
+        <v>0.99999999996726185</v>
       </c>
       <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999998635913</v>
+      </c>
+      <c r="P17">
+        <v>0.99999999998727873</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1673,28 +1781,34 @@
         <v>0.9999575101731234</v>
       </c>
       <c r="I18">
-        <v>0.99999190642125158</v>
+        <v>0.99998964958130621</v>
       </c>
       <c r="J18">
-        <v>0.99999847511282802</v>
+        <v>0.99999719057945435</v>
       </c>
       <c r="K18">
-        <v>0.99999970246067449</v>
+        <v>0.99999809530638151</v>
       </c>
       <c r="L18">
-        <v>0.99999985345075781</v>
+        <v>0.99999813340018284</v>
       </c>
       <c r="M18">
-        <v>0.99999990145826345</v>
+        <v>0.99999862460998534</v>
       </c>
       <c r="N18">
-        <v>0.99999998175152882</v>
+        <v>0.99999944984354017</v>
       </c>
       <c r="O18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999978779672238</v>
+      </c>
+      <c r="P18">
+        <v>0.99999981582356512</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1708,28 +1822,34 @@
         <v>0.99999685122077087</v>
       </c>
       <c r="I19">
-        <v>0.99999929566608237</v>
+        <v>0.99999955650876793</v>
       </c>
       <c r="J19">
-        <v>0.9999999106441495</v>
+        <v>0.99999992092789103</v>
       </c>
       <c r="K19">
-        <v>0.99999998829130143</v>
+        <v>0.99999992429266138</v>
       </c>
       <c r="L19">
-        <v>0.99999999387710259</v>
+        <v>0.99999993060160586</v>
       </c>
       <c r="M19">
-        <v>0.99999999614257462</v>
+        <v>0.99999995326230484</v>
       </c>
       <c r="N19">
-        <v>0.99999999925708849</v>
+        <v>0.99999999603917822</v>
       </c>
       <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999847660703</v>
+      </c>
+      <c r="P19">
+        <v>0.99999999858414068</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1755,28 +1875,34 @@
         <v>0.01</v>
       </c>
       <c r="I20">
-        <v>5.7652966338106746E-3</v>
+        <v>6.6516347237880503E-3</v>
       </c>
       <c r="J20">
-        <v>3.8988806439441575E-3</v>
+        <v>4.1767888281145204E-3</v>
       </c>
       <c r="K20">
-        <v>2.3264041510768995E-3</v>
+        <v>1.2245270602715217E-3</v>
       </c>
       <c r="L20">
-        <v>7.2314772541714253E-4</v>
+        <v>3.8298712878061329E-4</v>
       </c>
       <c r="M20">
-        <v>2.3901275853022348E-4</v>
+        <v>1.2543517530321364E-4</v>
       </c>
       <c r="N20">
-        <v>1.7927028086875586E-4</v>
+        <v>5.6449723315963122E-5</v>
       </c>
       <c r="O20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.4113028336399333E-5</v>
+      </c>
+      <c r="P20">
+        <v>4.2953116640208236E-6</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1790,28 +1916,34 @@
         <v>0.99999809825573749</v>
       </c>
       <c r="I21">
-        <v>0.99999955391119022</v>
+        <v>0.99999965179276307</v>
       </c>
       <c r="J21">
-        <v>0.99999991354864914</v>
+        <v>0.99999993141370691</v>
       </c>
       <c r="K21">
-        <v>0.99999998295325354</v>
+        <v>0.99999993800854237</v>
       </c>
       <c r="L21">
-        <v>0.9999999858548273</v>
+        <v>0.99999991926694043</v>
       </c>
       <c r="M21">
-        <v>0.99999998698001158</v>
+        <v>0.99999992823727968</v>
       </c>
       <c r="N21">
-        <v>0.99999999629431102</v>
+        <v>0.99999998671060664</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999261700367</v>
+      </c>
+      <c r="P21">
+        <v>0.99999999140208018</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1825,28 +1957,34 @@
         <v>0.99999875658540915</v>
       </c>
       <c r="I22">
-        <v>0.99999981204178212</v>
+        <v>0.99999981134379412</v>
       </c>
       <c r="J22">
-        <v>0.99999997650521888</v>
+        <v>0.99999997245894368</v>
       </c>
       <c r="K22">
-        <v>0.99999999771154724</v>
+        <v>0.99999998329476902</v>
       </c>
       <c r="L22">
-        <v>0.9999999990000038</v>
+        <v>0.99999998522229561</v>
       </c>
       <c r="M22">
-        <v>0.99999999941509654</v>
+        <v>0.99999999099263726</v>
       </c>
       <c r="N22">
-        <v>0.99999999992886313</v>
+        <v>0.99999999920988036</v>
       </c>
       <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999973451981</v>
+      </c>
+      <c r="P22">
+        <v>0.99999999980294252</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1860,28 +1998,34 @@
         <v>0.99999861905690046</v>
       </c>
       <c r="I23">
-        <v>0.99999973098481143</v>
+        <v>0.99999985908726408</v>
       </c>
       <c r="J23">
-        <v>0.99999996275173453</v>
+        <v>0.99999997741093283</v>
       </c>
       <c r="K23">
-        <v>0.99999999422914176</v>
+        <v>0.99999997885278802</v>
       </c>
       <c r="L23">
-        <v>0.99999999609446966</v>
+        <v>0.99999997303730481</v>
       </c>
       <c r="M23">
-        <v>0.9999999969343687</v>
+        <v>0.99999997837058496</v>
       </c>
       <c r="N23">
-        <v>0.99999999951479213</v>
+        <v>0.9999999981975487</v>
       </c>
       <c r="O23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9999999990477616</v>
+      </c>
+      <c r="P23">
+        <v>0.9999999991149785</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1895,28 +2039,34 @@
         <v>0.99999998895810982</v>
       </c>
       <c r="I24">
-        <v>0.9999999985876652</v>
+        <v>0.99999999893388636</v>
       </c>
       <c r="J24">
-        <v>0.99999999990653665</v>
+        <v>0.99999999993195021</v>
       </c>
       <c r="K24">
-        <v>0.99999999999179034</v>
+        <v>0.99999999995424238</v>
       </c>
       <c r="L24">
-        <v>0.99999999999546518</v>
+        <v>0.9999999999579029</v>
       </c>
       <c r="M24">
-        <v>0.99999999999656153</v>
+        <v>0.99999999997293754</v>
       </c>
       <c r="N24">
-        <v>0.99999999999958544</v>
+        <v>0.99999999999949885</v>
       </c>
       <c r="O24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999999979594</v>
+      </c>
+      <c r="P24">
+        <v>0.99999999999981293</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1930,28 +2080,34 @@
         <v>0.99999989841076109</v>
       </c>
       <c r="I25">
-        <v>0.99999998845576732</v>
+        <v>0.99999998700602644</v>
       </c>
       <c r="J25">
-        <v>0.99999999853664656</v>
+        <v>0.99999999886302726</v>
       </c>
       <c r="K25">
-        <v>0.99999999979581122</v>
+        <v>0.9999999991317664</v>
       </c>
       <c r="L25">
-        <v>0.99999999986502774</v>
+        <v>0.99999999911367821</v>
       </c>
       <c r="M25">
-        <v>0.99999999987852506</v>
+        <v>0.99999999923299077</v>
       </c>
       <c r="N25">
-        <v>0.9999999999738598</v>
+        <v>0.99999999999225242</v>
       </c>
       <c r="O25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999999624722</v>
+      </c>
+      <c r="P25">
+        <v>0.99999999999616906</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1965,28 +2121,34 @@
         <v>0.9999999869177395</v>
       </c>
       <c r="I26">
-        <v>0.99999999854641541</v>
+        <v>0.99999999805533968</v>
       </c>
       <c r="J26">
-        <v>0.99999999990043942</v>
+        <v>0.99999999988409305</v>
       </c>
       <c r="K26">
-        <v>0.99999999999048783</v>
+        <v>0.99999999993376754</v>
       </c>
       <c r="L26">
-        <v>0.99999999999560363</v>
+        <v>0.99999999994480626</v>
       </c>
       <c r="M26">
-        <v>0.99999999999723654</v>
+        <v>0.99999999996966826</v>
       </c>
       <c r="N26">
-        <v>0.99999999999960787</v>
+        <v>0.99999999999801104</v>
       </c>
       <c r="O26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999999936784</v>
+      </c>
+      <c r="P26">
+        <v>0.99999999999951117</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1997,28 +2159,34 @@
         <v>0.99999520525944896</v>
       </c>
       <c r="I27">
-        <v>0.99999878613728599</v>
+        <v>0.9999992674672179</v>
       </c>
       <c r="J27">
-        <v>0.99999981608121746</v>
+        <v>0.99999983975836226</v>
       </c>
       <c r="K27">
-        <v>0.99999996321623819</v>
+        <v>0.99999984616802673</v>
       </c>
       <c r="L27">
-        <v>0.99999997096018789</v>
+        <v>0.99999981882012534</v>
       </c>
       <c r="M27">
-        <v>0.99999997264854901</v>
+        <v>0.99999981445434594</v>
       </c>
       <c r="N27">
-        <v>0.99999999263614769</v>
+        <v>0.99999997680678954</v>
       </c>
       <c r="O27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999998617327834</v>
+      </c>
+      <c r="P27">
+        <v>0.9999999824363266</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -2032,28 +2200,34 @@
         <v>0.99738018865381073</v>
       </c>
       <c r="I28">
-        <v>0.99794042057594901</v>
+        <v>0.99871135751404794</v>
       </c>
       <c r="J28">
-        <v>0.99874625454457688</v>
+        <v>0.9992864570992489</v>
       </c>
       <c r="K28">
-        <v>0.99913924789089148</v>
+        <v>0.99827939082118855</v>
       </c>
       <c r="L28">
-        <v>0.99865888444735351</v>
+        <v>0.99400366126283601</v>
       </c>
       <c r="M28">
-        <v>0.9970987889717029</v>
+        <v>0.98732979649709618</v>
       </c>
       <c r="N28">
-        <v>0.99813903210573784</v>
+        <v>0.98912013269281573</v>
       </c>
       <c r="O28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.98524924509103184</v>
+      </c>
+      <c r="P28">
+        <v>0.96569760185803122</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2079,28 +2253,34 @@
         <v>0.99</v>
       </c>
       <c r="I29">
-        <v>0.99847543098393343</v>
+        <v>0.99813293502613887</v>
       </c>
       <c r="J29">
-        <v>0.99985077671163081</v>
+        <v>0.99981163402104856</v>
       </c>
       <c r="K29">
-        <v>0.99997654767642286</v>
+        <v>0.99991283676990106</v>
       </c>
       <c r="L29">
-        <v>0.99999113134493889</v>
+        <v>0.99993988580138948</v>
       </c>
       <c r="M29">
-        <v>0.99999473147307549</v>
+        <v>0.99996994199723832</v>
       </c>
       <c r="N29">
-        <v>0.99999928498237589</v>
+        <v>0.9999978906075182</v>
       </c>
       <c r="O29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9999992968681839</v>
+      </c>
+      <c r="P29">
+        <v>0.99999958639292963</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2114,28 +2294,34 @@
         <v>0.99999992249472591</v>
       </c>
       <c r="I30">
-        <v>0.99999998660402589</v>
+        <v>0.99999999173277021</v>
       </c>
       <c r="J30">
-        <v>0.99999999872884915</v>
+        <v>0.9999999993110642</v>
       </c>
       <c r="K30">
-        <v>0.99999999985689036</v>
+        <v>0.99999999959130925</v>
       </c>
       <c r="L30">
-        <v>0.99999999992844524</v>
+        <v>0.99999999966990361</v>
       </c>
       <c r="M30">
-        <v>0.99999999995107991</v>
+        <v>0.99999999980321175</v>
       </c>
       <c r="N30">
-        <v>0.99999999999126421</v>
+        <v>0.99999999999375278</v>
       </c>
       <c r="O30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999999756461</v>
+      </c>
+      <c r="P30">
+        <v>0.99999999999813471</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2149,28 +2335,34 @@
         <v>0.99999979740838241</v>
       </c>
       <c r="I31">
-        <v>0.99999996972768412</v>
+        <v>0.99999998181869754</v>
       </c>
       <c r="J31">
-        <v>0.99999999770347936</v>
+        <v>0.99999999825658736</v>
       </c>
       <c r="K31">
-        <v>0.99999999974812359</v>
+        <v>0.99999999866130818</v>
       </c>
       <c r="L31">
-        <v>0.99999999983448129</v>
+        <v>0.9999999983935699</v>
       </c>
       <c r="M31">
-        <v>0.99999999986758514</v>
+        <v>0.9999999987579149</v>
       </c>
       <c r="N31">
-        <v>0.99999999997701128</v>
+        <v>0.99999999996056876</v>
       </c>
       <c r="O31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999998310085</v>
+      </c>
+      <c r="P31">
+        <v>0.99999999998460298</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2184,28 +2376,34 @@
         <v>0.99999981194441812</v>
       </c>
       <c r="I32">
-        <v>0.99999996641864097</v>
+        <v>0.99999998168289472</v>
       </c>
       <c r="J32">
-        <v>0.99999999666568051</v>
+        <v>0.99999999796476602</v>
       </c>
       <c r="K32">
-        <v>0.99999999958321006</v>
+        <v>0.99999999840881715</v>
       </c>
       <c r="L32">
-        <v>0.99999999970988152</v>
+        <v>0.99999999804718476</v>
       </c>
       <c r="M32">
-        <v>0.99999999975402998</v>
+        <v>0.99999999840035358</v>
       </c>
       <c r="N32">
-        <v>0.99999999995496325</v>
+        <v>0.99999999994921762</v>
       </c>
       <c r="O32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999997571276</v>
+      </c>
+      <c r="P32">
+        <v>0.9999999999754271</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2219,28 +2417,34 @@
         <v>0.99999999080582291</v>
       </c>
       <c r="I33">
-        <v>0.99999999882400059</v>
+        <v>0.99999999899927328</v>
       </c>
       <c r="J33">
-        <v>0.99999999995065736</v>
+        <v>0.99999999997313493</v>
       </c>
       <c r="K33">
-        <v>0.99999999999542522</v>
+        <v>0.99999999998315237</v>
       </c>
       <c r="L33">
-        <v>0.99999999999762945</v>
+        <v>0.99999999998513445</v>
       </c>
       <c r="M33">
-        <v>0.99999999999848299</v>
+        <v>0.99999999999081834</v>
       </c>
       <c r="N33">
-        <v>0.99999999999982214</v>
+        <v>0.9999999999999073</v>
       </c>
       <c r="O33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999999996603</v>
+      </c>
+      <c r="P33">
+        <v>0.99999999999997624</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2251,28 +2455,34 @@
         <v>0.99999604732955405</v>
       </c>
       <c r="I34">
-        <v>0.99999899508082268</v>
+        <v>0.99999941681714954</v>
       </c>
       <c r="J34">
-        <v>0.99999988438972642</v>
+        <v>0.99999991814973432</v>
       </c>
       <c r="K34">
-        <v>0.99999998427700132</v>
+        <v>0.99999993763789152</v>
       </c>
       <c r="L34">
-        <v>0.99999999308188059</v>
+        <v>0.99999994980610729</v>
       </c>
       <c r="M34">
-        <v>0.99999999583340538</v>
+        <v>0.99999997099908355</v>
       </c>
       <c r="N34">
-        <v>0.9999999993055676</v>
+        <v>0.99999999829406372</v>
       </c>
       <c r="O34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999940948359</v>
+      </c>
+      <c r="P34">
+        <v>0.99999999950151219</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2298,28 +2508,34 @@
         <v>0.01</v>
       </c>
       <c r="I35">
-        <v>5.4095826893353939E-3</v>
+        <v>7.0385359845152214E-3</v>
       </c>
       <c r="J35">
-        <v>3.1280722137813927E-3</v>
+        <v>4.3628197930868562E-3</v>
       </c>
       <c r="K35">
-        <v>1.5905476028175419E-3</v>
+        <v>1.0396281800391391E-3</v>
       </c>
       <c r="L35">
-        <v>3.0335204004246945E-4</v>
+        <v>3.9011405099020132E-4</v>
       </c>
       <c r="M35">
-        <v>5.5504984347594445E-5</v>
+        <v>6.9685554184617516E-5</v>
       </c>
       <c r="N35">
-        <v>3.6366030605651372E-5</v>
+        <v>2.7875387180929296E-5</v>
       </c>
       <c r="O35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.2405097148474326E-6</v>
+      </c>
+      <c r="P35">
+        <v>2.4461298746123611E-6</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2333,28 +2549,34 @@
         <v>0.99999991620737916</v>
       </c>
       <c r="I36">
-        <v>0.9999999914302995</v>
+        <v>0.9999999899448847</v>
       </c>
       <c r="J36">
-        <v>0.99999999906851078</v>
+        <v>0.99999999886702928</v>
       </c>
       <c r="K36">
-        <v>0.9999999999288034</v>
+        <v>0.99999999922480942</v>
       </c>
       <c r="L36">
-        <v>0.99999999996151534</v>
+        <v>0.99999999931600836</v>
       </c>
       <c r="M36">
-        <v>0.99999999997447053</v>
+        <v>0.99999999956171415</v>
       </c>
       <c r="N36">
-        <v>0.99999999999612654</v>
+        <v>0.99999999997844491</v>
       </c>
       <c r="O36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999999228917</v>
+      </c>
+      <c r="P36">
+        <v>0.99999999999290257</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2368,28 +2590,34 @@
         <v>0.89713635391649937</v>
       </c>
       <c r="I37">
-        <v>0.85955897172782325</v>
+        <v>0.88182211121218301</v>
       </c>
       <c r="J37">
-        <v>0.81886582928358753</v>
+        <v>0.84744261107988617</v>
       </c>
       <c r="K37">
-        <v>0.73859495814070375</v>
+        <v>0.57818226244169313</v>
       </c>
       <c r="L37">
-        <v>0.46315707843400716</v>
+        <v>0.32552656487669202</v>
       </c>
       <c r="M37">
-        <v>0.01</v>
+        <v>0.11554430123598908</v>
       </c>
       <c r="N37">
-        <v>7.6775431861804237E-3</v>
+        <v>6.2650997869135347E-2</v>
       </c>
       <c r="O37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.1964462699885473E-2</v>
+      </c>
+      <c r="P37">
+        <v>6.4722939332274949E-3</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2415,28 +2643,34 @@
         <v>0.99</v>
       </c>
       <c r="I38">
-        <v>0.99819949585884049</v>
+        <v>0.99827840629611408</v>
       </c>
       <c r="J38">
-        <v>0.99982940393735709</v>
+        <v>0.999896121472582</v>
       </c>
       <c r="K38">
-        <v>0.99997817632655195</v>
+        <v>0.99993133211471741</v>
       </c>
       <c r="L38">
-        <v>0.99998752921281897</v>
+        <v>0.99993133211471741</v>
       </c>
       <c r="M38">
-        <v>0.99999182944912512</v>
+        <v>0.99994849820190823</v>
       </c>
       <c r="N38">
-        <v>0.9999983451941038</v>
+        <v>0.99999742478409859</v>
       </c>
       <c r="O38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999888535268322</v>
+      </c>
+      <c r="P38">
+        <v>0.99999912854824957</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -2450,28 +2684,34 @@
         <v>0.99999889751705029</v>
       </c>
       <c r="I39">
-        <v>0.99999982052586589</v>
+        <v>0.99999981751989564</v>
       </c>
       <c r="J39">
-        <v>0.99999997641945315</v>
+        <v>0.99999997523483908</v>
       </c>
       <c r="K39">
-        <v>0.99999999739695256</v>
+        <v>0.99999998457252259</v>
       </c>
       <c r="L39">
-        <v>0.99999999872091627</v>
+        <v>0.99999998605593388</v>
       </c>
       <c r="M39">
-        <v>0.99999999926571115</v>
+        <v>0.99999999186596145</v>
       </c>
       <c r="N39">
-        <v>0.99999999986038179</v>
+        <v>0.99999999915854776</v>
       </c>
       <c r="O39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999973047238</v>
+      </c>
+      <c r="P39">
+        <v>0.9999999997739446</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -2485,28 +2725,34 @@
         <v>0.99999989838729952</v>
       </c>
       <c r="I40">
-        <v>0.99999998598445383</v>
+        <v>0.99999998704267468</v>
       </c>
       <c r="J40">
-        <v>0.99999999848753107</v>
+        <v>0.99999999903040415</v>
       </c>
       <c r="K40">
-        <v>0.99999999982089183</v>
+        <v>0.99999999927280314</v>
       </c>
       <c r="L40">
-        <v>0.99999999990887489</v>
+        <v>0.99999999921091409</v>
       </c>
       <c r="M40">
-        <v>0.99999999993712374</v>
+        <v>0.99999999952357088</v>
       </c>
       <c r="N40">
-        <v>0.99999999998840572</v>
+        <v>0.99999999998487521</v>
       </c>
       <c r="O40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999999479705</v>
+      </c>
+      <c r="P40">
+        <v>0.99999999999548317</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -2517,28 +2763,34 @@
         <v>0.99999919336612819</v>
       </c>
       <c r="I41">
-        <v>0.99999985108287959</v>
+        <v>0.99999988026520248</v>
       </c>
       <c r="J41">
-        <v>0.99999998657304479</v>
+        <v>0.99999998527850698</v>
       </c>
       <c r="K41">
-        <v>0.99999999803759887</v>
+        <v>0.99999999234482351</v>
       </c>
       <c r="L41">
-        <v>0.99999999890752922</v>
+        <v>0.99999999455631894</v>
       </c>
       <c r="M41">
-        <v>0.9999999992551335</v>
+        <v>0.99999999672208462</v>
       </c>
       <c r="N41">
-        <v>0.99999999986890353</v>
+        <v>0.99999999976160614</v>
       </c>
       <c r="O41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999988557098</v>
+      </c>
+      <c r="P41">
+        <v>0.9999999999138417</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -2552,28 +2804,34 @@
         <v>0.99999909729538716</v>
       </c>
       <c r="I42">
-        <v>0.99999988991398436</v>
+        <v>0.99999987748999264</v>
       </c>
       <c r="J42">
-        <v>0.99999998634591925</v>
+        <v>0.99999998537193779</v>
       </c>
       <c r="K42">
-        <v>0.99999999817304552</v>
+        <v>0.99999999167713693</v>
       </c>
       <c r="L42">
-        <v>0.99999999899082515</v>
+        <v>0.9999999928661174</v>
       </c>
       <c r="M42">
-        <v>0.99999999942615536</v>
+        <v>0.99999999569141751</v>
       </c>
       <c r="N42">
-        <v>0.99999999988696997</v>
+        <v>0.9999999999293675</v>
       </c>
       <c r="O42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999997625788</v>
+      </c>
+      <c r="P42">
+        <v>0.99999999998264011</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2587,28 +2845,34 @@
         <v>0.99999524471857804</v>
       </c>
       <c r="I43">
-        <v>0.99999900197422331</v>
+        <v>0.99999888837172102</v>
       </c>
       <c r="J43">
-        <v>0.99999982387765929</v>
+        <v>0.99999978681082347</v>
       </c>
       <c r="K43">
-        <v>0.99999994450939278</v>
+        <v>0.99999979960217156</v>
       </c>
       <c r="L43">
-        <v>0.99999996634176203</v>
+        <v>0.99999981924901393</v>
       </c>
       <c r="M43">
-        <v>0.99999996840247041</v>
+        <v>0.99999983009407123</v>
       </c>
       <c r="N43">
-        <v>0.99999999351845525</v>
+        <v>0.99999995752351234</v>
       </c>
       <c r="O43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999997942545071</v>
+      </c>
+      <c r="P43">
+        <v>0.99999997718908673</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2622,28 +2886,34 @@
         <v>0.7952913247224368</v>
       </c>
       <c r="I44">
-        <v>0.6702009086722196</v>
+        <v>0.74710509758730181</v>
       </c>
       <c r="J44">
-        <v>0.58834247207315415</v>
+        <v>0.66557486053282366</v>
       </c>
       <c r="K44">
-        <v>0.46706416864351102</v>
+        <v>0.45547510240221889</v>
       </c>
       <c r="L44">
-        <v>0.20859685366381769</v>
+        <v>0.27903003984173669</v>
       </c>
       <c r="M44">
-        <v>6.3964164648300861E-2</v>
+        <v>0.11741725677560645</v>
       </c>
       <c r="N44">
-        <v>4.4404527483103536E-2</v>
+        <v>6.7906962918428529E-2</v>
       </c>
       <c r="O44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.9865110076243465E-2</v>
+      </c>
+      <c r="P44">
+        <v>7.1302734976306827E-3</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -2657,28 +2927,34 @@
         <v>0.99999929530544807</v>
       </c>
       <c r="I45">
-        <v>0.99999988102552539</v>
+        <v>0.99999989860503924</v>
       </c>
       <c r="J45">
-        <v>0.99999998828281567</v>
+        <v>0.99999998617341324</v>
       </c>
       <c r="K45">
-        <v>0.99999999833798792</v>
+        <v>0.99999998921526223</v>
       </c>
       <c r="L45">
-        <v>0.99999999910627646</v>
+        <v>0.99999998991861472</v>
       </c>
       <c r="M45">
-        <v>0.99999999933942174</v>
+        <v>0.99999999334836431</v>
       </c>
       <c r="N45">
-        <v>0.99999999988745714</v>
+        <v>0.99999999932356243</v>
       </c>
       <c r="O45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999975717624</v>
+      </c>
+      <c r="P45">
+        <v>0.99999999976606002</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2704,28 +2980,34 @@
         <v>0.16666666666666663</v>
       </c>
       <c r="I46">
-        <v>0.12576687116564417</v>
+        <v>0.16173570019723862</v>
       </c>
       <c r="J46">
-        <v>0.11477107140118106</v>
+        <v>0.15662052884853894</v>
       </c>
       <c r="K46">
-        <v>0.10001503734273445</v>
+        <v>2.7937273364051777E-2</v>
       </c>
       <c r="L46">
-        <v>4.3905168942483926E-2</v>
+        <v>8.3599790679698555E-3</v>
       </c>
       <c r="M46">
-        <v>1.2804082432780054E-2</v>
+        <v>2.6722874831002167E-3</v>
       </c>
       <c r="N46">
-        <v>1.2804082432780054E-2</v>
+        <v>1.6461765499807049E-3</v>
       </c>
       <c r="O46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.1823109548160662E-4</v>
+      </c>
+      <c r="P46">
+        <v>1.7309894858269788E-4</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -2739,28 +3021,34 @@
         <v>0.9999999953975407</v>
       </c>
       <c r="I47">
-        <v>0.99999999957043717</v>
+        <v>0.99999999964094288</v>
       </c>
       <c r="J47">
-        <v>0.99</v>
+        <v>0.9999999999868957</v>
       </c>
       <c r="K47">
-        <v>0.9992990326650778</v>
+        <v>0.99999999999229161</v>
       </c>
       <c r="L47">
-        <v>0.99962877719207066</v>
+        <v>0.99999999999383338</v>
       </c>
       <c r="M47">
-        <v>0.99972577472858026</v>
+        <v>0.99999999999525102</v>
       </c>
       <c r="N47">
-        <v>0.99997631994278313</v>
+        <v>0.99999999999991951</v>
       </c>
       <c r="O47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999999996614</v>
+      </c>
+      <c r="P47">
+        <v>0.99999999999997091</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2774,28 +3062,34 @@
         <v>0.99999993458194192</v>
       </c>
       <c r="I48">
-        <v>0.9999999934581939</v>
+        <v>0.99999999239324866</v>
       </c>
       <c r="J48">
-        <v>0.99999999956961805</v>
+        <v>0.99999999923932492</v>
       </c>
       <c r="K48">
-        <v>0.99999999995598365</v>
+        <v>0.99999999945284768</v>
       </c>
       <c r="L48">
-        <v>0.99999999997258004</v>
+        <v>0.99999999945284768</v>
       </c>
       <c r="M48">
-        <v>0.99999999997679845</v>
+        <v>0.99999999955417207</v>
       </c>
       <c r="N48">
-        <v>0.99999999999598987</v>
+        <v>0.9999999999954966</v>
       </c>
       <c r="O48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.999999999997641</v>
+      </c>
+      <c r="P48">
+        <v>0.99999999999744027</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2809,28 +3103,34 @@
         <v>0.99978980684243202</v>
       </c>
       <c r="I49">
-        <v>0.99989817665360259</v>
+        <v>0.99994908573467078</v>
       </c>
       <c r="J49">
-        <v>0.99997090549924394</v>
+        <v>0.99998662371630509</v>
       </c>
       <c r="K49">
-        <v>0.99999243984881037</v>
+        <v>0.99998028770682301</v>
       </c>
       <c r="L49">
-        <v>0.99999379896868601</v>
+        <v>0.99995994034836166</v>
       </c>
       <c r="M49">
-        <v>0.99999432194426108</v>
+        <v>0.99995892622162141</v>
       </c>
       <c r="N49">
-        <v>0.99999831065436406</v>
+        <v>0.99998910254627527</v>
       </c>
       <c r="O49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999284851920367</v>
+      </c>
+      <c r="P49">
+        <v>0.99999103548398738</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -2844,28 +3144,34 @@
         <v>0.99999981854037723</v>
       </c>
       <c r="I50">
-        <v>0.99999997651698624</v>
+        <v>0.99999997121674511</v>
       </c>
       <c r="J50">
-        <v>0.99999999797268946</v>
+        <v>0.99999999736491318</v>
       </c>
       <c r="K50">
-        <v>0.99999999972787779</v>
+        <v>0.99999999824327546</v>
       </c>
       <c r="L50">
-        <v>0.99999999985020804</v>
+        <v>0.99999999820589835</v>
       </c>
       <c r="M50">
-        <v>0.99999999988526567</v>
+        <v>0.9999999986067083</v>
       </c>
       <c r="N50">
-        <v>0.99</v>
+        <v>0.99999999979733944</v>
       </c>
       <c r="O50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999990409816</v>
+      </c>
+      <c r="P50">
+        <v>0.99999999991795074</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -2879,28 +3185,34 @@
         <v>0.99999677759572714</v>
       </c>
       <c r="I51">
-        <v>0.99999919439698481</v>
+        <v>0.99999968815351747</v>
       </c>
       <c r="J51">
-        <v>0.99999988827395692</v>
+        <v>0.99999994764619748</v>
       </c>
       <c r="K51">
-        <v>0.99999998446193961</v>
+        <v>0.9999999526802168</v>
       </c>
       <c r="L51">
-        <v>0.99999998876952056</v>
+        <v>0.99999993578029533</v>
       </c>
       <c r="M51">
-        <v>0.99999999101561632</v>
+        <v>0.99999994794823865</v>
       </c>
       <c r="N51">
-        <v>0.99999999836647568</v>
+        <v>0.99999999470660028</v>
       </c>
       <c r="O51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999711269094</v>
+      </c>
+      <c r="P51">
+        <v>0.99999999742997769</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2911,28 +3223,34 @@
         <v>0.9999978353169483</v>
       </c>
       <c r="I52">
-        <v>0.99999967277986768</v>
+        <v>0.9999996304193034</v>
       </c>
       <c r="J52">
-        <v>0.99999994857967933</v>
+        <v>0.99999993007930676</v>
       </c>
       <c r="K52">
-        <v>0.99999998747453678</v>
+        <v>0.99999994533472991</v>
       </c>
       <c r="L52">
-        <v>0.99999999150816044</v>
+        <v>0.99999994305701045</v>
       </c>
       <c r="M52">
-        <v>0.99999999281459739</v>
+        <v>0.99999994962735517</v>
       </c>
       <c r="N52">
-        <v>0.99999999843395071</v>
+        <v>0.99999999111070936</v>
       </c>
       <c r="O52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999512522775</v>
+      </c>
+      <c r="P52">
+        <v>0.99999999532021866</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -2946,28 +3264,34 @@
         <v>0.99999779605777184</v>
       </c>
       <c r="I53">
-        <v>0.99999956996172923</v>
+        <v>0.99999959683911033</v>
       </c>
       <c r="J53">
-        <v>0.99999990877972977</v>
+        <v>0.9999999160081211</v>
       </c>
       <c r="K53">
-        <v>0.99999998220092157</v>
+        <v>0.99999993586074565</v>
       </c>
       <c r="L53">
-        <v>0.99999999011162299</v>
+        <v>0.99999993970910073</v>
       </c>
       <c r="M53">
-        <v>0.99999999182307275</v>
+        <v>0.99999995199057967</v>
       </c>
       <c r="N53">
-        <v>0.99999999860393918</v>
+        <v>0.99999998499705556</v>
       </c>
       <c r="O53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999237945669</v>
+      </c>
+      <c r="P53">
+        <v>0.99999999283668917</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -2981,28 +3305,34 @@
         <v>0.99999981934366766</v>
       </c>
       <c r="I54">
-        <v>0.99999996903033839</v>
+        <v>0.99999998153876601</v>
       </c>
       <c r="J54">
-        <v>0.99999999716474919</v>
+        <v>0.99999999812503093</v>
       </c>
       <c r="K54">
-        <v>0.99999999969182052</v>
+        <v>0.99999999883751911</v>
       </c>
       <c r="L54">
-        <v>0.99999999985324795</v>
+        <v>0.99999999902245928</v>
       </c>
       <c r="M54">
-        <v>0.9999999999016278</v>
+        <v>0.99999999935184802</v>
       </c>
       <c r="N54">
-        <v>0.99999999998218458</v>
+        <v>0.99999999998901434</v>
       </c>
       <c r="O54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9999999999954825</v>
+      </c>
+      <c r="P54">
+        <v>0.99999999999666311</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -3016,28 +3346,34 @@
         <v>0.99937145402176808</v>
       </c>
       <c r="I55">
-        <v>0.99963325213024035</v>
+        <v>0.99979877928296457</v>
       </c>
       <c r="J55">
-        <v>0.99986780759494165</v>
+        <v>0.99992093934520365</v>
       </c>
       <c r="K55">
-        <v>0.99993682404774664</v>
+        <v>0.99990623176540494</v>
       </c>
       <c r="L55">
-        <v>0.99992451797301851</v>
+        <v>0.99988390858709342</v>
       </c>
       <c r="M55">
-        <v>0.99991687485883851</v>
+        <v>0.99987068469336438</v>
       </c>
       <c r="N55">
-        <v>0.99995689634980656</v>
+        <v>0.999957770916025</v>
       </c>
       <c r="O55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99996888348706525</v>
+      </c>
+      <c r="P55">
+        <v>0.9999618306800111</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -3051,28 +3387,34 @@
         <v>0.99999998924245159</v>
       </c>
       <c r="I56">
-        <v>0.99999999905428139</v>
+        <v>0.99999999860784661</v>
       </c>
       <c r="J56">
-        <v>0.99999999993778166</v>
+        <v>0.99999999991613531</v>
       </c>
       <c r="K56">
-        <v>0.99999999999440725</v>
+        <v>0.99999999994456401</v>
       </c>
       <c r="L56">
-        <v>0.99999999999651601</v>
+        <v>0.99999999994678157</v>
       </c>
       <c r="M56">
-        <v>0.99999999999705202</v>
+        <v>0.99999999996008626</v>
       </c>
       <c r="N56">
-        <v>0.9999999999995326</v>
+        <v>0.99999999999959688</v>
       </c>
       <c r="O56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999999978884</v>
+      </c>
+      <c r="P56">
+        <v>0.99999999999978006</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -3086,28 +3428,34 @@
         <v>0.99999691136411473</v>
       </c>
       <c r="I57">
-        <v>0.99999941168693185</v>
+        <v>0.9999995219955794</v>
       </c>
       <c r="J57">
-        <v>0.99999989914628196</v>
+        <v>0.99999989523186872</v>
       </c>
       <c r="K57">
-        <v>0.99999998032122406</v>
+        <v>0.99999992897075607</v>
       </c>
       <c r="L57">
-        <v>0.9999999884426235</v>
+        <v>0.99999993039134083</v>
       </c>
       <c r="M57">
-        <v>0.99999999040519683</v>
+        <v>0.99999994199278341</v>
       </c>
       <c r="N57">
-        <v>0.99999999731345512</v>
+        <v>0.99999999941406847</v>
       </c>
       <c r="O57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999962262043</v>
+      </c>
+      <c r="P57">
+        <v>0.99999999963016806</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -3121,28 +3469,34 @@
         <v>0.99996847105877329</v>
       </c>
       <c r="I58">
-        <v>0.99998991052249231</v>
+        <v>0.99999258124672485</v>
       </c>
       <c r="J58">
-        <v>0.99999822855028264</v>
+        <v>0.99999833220866452</v>
       </c>
       <c r="K58">
-        <v>0.99999962040310364</v>
+        <v>0.99999833220866452</v>
       </c>
       <c r="L58">
-        <v>0.99999976940372026</v>
+        <v>0.9999982627174796</v>
       </c>
       <c r="M58">
-        <v>0.99999983293533778</v>
+        <v>0.99999875406949945</v>
       </c>
       <c r="N58">
-        <v>0.99999994909747991</v>
+        <v>0.99999989617233975</v>
       </c>
       <c r="O58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999995256149743</v>
+      </c>
+      <c r="P58">
+        <v>0.999999957832442</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -3168,28 +3522,34 @@
         <v>0.99</v>
       </c>
       <c r="I59">
-        <v>0.99872302387945344</v>
+        <v>0.9987661489330818</v>
       </c>
       <c r="J59">
-        <v>0.99995333762005068</v>
+        <v>0.99</v>
       </c>
       <c r="K59">
-        <v>0.99999616457163421</v>
+        <v>0.99165275459098501</v>
       </c>
       <c r="L59">
-        <v>0.99999787747775415</v>
+        <v>0.99044288096303235</v>
       </c>
       <c r="M59">
-        <v>0.99999841989924887</v>
+        <v>0.99330101741209209</v>
       </c>
       <c r="N59">
-        <v>0.99999985534268132</v>
+        <v>0.99988570524090215</v>
       </c>
       <c r="O59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99995407485854826</v>
+      </c>
+      <c r="P59">
+        <v>0.99996252054502222</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -3203,28 +3563,34 @@
         <v>0.99999981649629111</v>
       </c>
       <c r="I60">
-        <v>0.99999997914730243</v>
+        <v>0.99999997691012565</v>
       </c>
       <c r="J60">
-        <v>0.99999999855189592</v>
+        <v>0.99999999810220208</v>
       </c>
       <c r="K60">
-        <v>0.99</v>
+        <v>0.99999999877768952</v>
       </c>
       <c r="L60">
-        <v>0.99461786867599578</v>
+        <v>0.99999999885102808</v>
       </c>
       <c r="M60">
-        <v>0.99662936497236088</v>
+        <v>0.99999999927084482</v>
       </c>
       <c r="N60">
-        <v>0.99954624161000738</v>
+        <v>0.99999999996471833</v>
       </c>
       <c r="O60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999998629563</v>
+      </c>
+      <c r="P60">
+        <v>0.99999999998838118</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -3238,28 +3604,34 @@
         <v>0.99999517167400709</v>
       </c>
       <c r="I61">
-        <v>0.9999991377955102</v>
+        <v>0.99999903433107129</v>
       </c>
       <c r="J61">
-        <v>0.99999987856265804</v>
+        <v>0.99999981730573528</v>
       </c>
       <c r="K61">
-        <v>0.99999997778584993</v>
+        <v>0.99999984488222393</v>
       </c>
       <c r="L61">
-        <v>0.99999998730619988</v>
+        <v>0.99999983168071327</v>
       </c>
       <c r="M61">
-        <v>0.99999998970125648</v>
+        <v>0.99999987376052968</v>
       </c>
       <c r="N61">
-        <v>0.9999999979141786</v>
+        <v>0.99999996055016205</v>
       </c>
       <c r="O61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999998027508052</v>
+      </c>
+      <c r="P61">
+        <v>0.99999997370010751</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -3273,28 +3645,34 @@
         <v>0.24645625868145465</v>
       </c>
       <c r="I62">
-        <v>0.1180090566252832</v>
+        <v>0.1394379077760094</v>
       </c>
       <c r="J62">
-        <v>5.4877137331815533E-2</v>
+        <v>6.2699423300580967E-2</v>
       </c>
       <c r="K62">
-        <v>2.084613530049001E-2</v>
+        <v>1.8242583880998257E-2</v>
       </c>
       <c r="L62">
-        <v>4.4864128139846795E-3</v>
+        <v>8.0638775519257348E-3</v>
       </c>
       <c r="M62">
-        <v>1.0572565869162527E-3</v>
+        <v>2.1216482545526149E-3</v>
       </c>
       <c r="N62">
-        <v>5.0465830329006391E-4</v>
+        <v>5.0002260914456056E-4</v>
       </c>
       <c r="O62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.6465388910469023E-5</v>
+      </c>
+      <c r="P62">
+        <v>2.0738149658063757E-5</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -3305,28 +3683,34 @@
         <v>0.99999957062147504</v>
       </c>
       <c r="I63">
-        <v>0.99999993792115438</v>
+        <v>0.99999993045274915</v>
       </c>
       <c r="J63">
-        <v>0.99999999315306809</v>
+        <v>0.99999998969670301</v>
       </c>
       <c r="K63">
-        <v>0.99999999885086455</v>
+        <v>0.99999999236792803</v>
       </c>
       <c r="L63">
-        <v>0.99999999941517215</v>
+        <v>0.99999999356511582</v>
       </c>
       <c r="M63">
-        <v>0.999999999573563</v>
+        <v>0.99999999589933852</v>
       </c>
       <c r="N63">
-        <v>0.99999999991965671</v>
+        <v>0.99999999971719578</v>
       </c>
       <c r="O63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999989394839</v>
+      </c>
+      <c r="P63">
+        <v>0.99999999990926702</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -3340,28 +3724,34 @@
         <v>0.99999967990233862</v>
       </c>
       <c r="I64">
-        <v>0.9999999478910645</v>
+        <v>0.99999996396250468</v>
       </c>
       <c r="J64">
-        <v>0.99999999353392743</v>
+        <v>0.99999999477717449</v>
       </c>
       <c r="K64">
-        <v>0.99999999893708391</v>
+        <v>0.99999999645910131</v>
       </c>
       <c r="L64">
-        <v>0.99999999933818429</v>
+        <v>0.99999999704925102</v>
       </c>
       <c r="M64">
-        <v>0.99999999944608897</v>
+        <v>0.99999999772546433</v>
       </c>
       <c r="N64">
-        <v>0.99999999992463806</v>
+        <v>0.99999999976470311</v>
       </c>
       <c r="O64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999988547494</v>
+      </c>
+      <c r="P64">
+        <v>0.99999999989074051</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -3375,28 +3765,34 @@
         <v>0.99997824644557243</v>
       </c>
       <c r="I65">
-        <v>0.99999456152266342</v>
+        <v>0.99999244657523001</v>
       </c>
       <c r="J65">
-        <v>0.99999906768539826</v>
+        <v>0.99999794977342238</v>
       </c>
       <c r="K65">
-        <v>0.99999973011927856</v>
+        <v>0.99999848930591717</v>
       </c>
       <c r="L65">
-        <v>0.99999982745329241</v>
+        <v>0.99999874108794728</v>
       </c>
       <c r="M65">
-        <v>0.99999986823705433</v>
+        <v>0.99999895090640267</v>
       </c>
       <c r="N65">
-        <v>0.99999996532553725</v>
+        <v>0.99999958036229697</v>
       </c>
       <c r="O65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999971782978159</v>
+      </c>
+      <c r="P65">
+        <v>0.99999964728725188</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -3410,28 +3806,34 @@
         <v>0.99999876862122516</v>
       </c>
       <c r="I66">
-        <v>0.99999969215502194</v>
+        <v>0.99999978769309839</v>
       </c>
       <c r="J66">
-        <v>0.99999996725052531</v>
+        <v>0.99999997641033977</v>
       </c>
       <c r="K66">
-        <v>0.99999999519674354</v>
+        <v>0.99999997952595521</v>
       </c>
       <c r="L66">
-        <v>0.99999999706467668</v>
+        <v>0.99999997824632747</v>
       </c>
       <c r="M66">
-        <v>0.9999999978134837</v>
+        <v>0.99999998277834246</v>
       </c>
       <c r="N66">
-        <v>0.99999999970650788</v>
+        <v>0.99999999758292524</v>
       </c>
       <c r="O66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999874830059</v>
+      </c>
+      <c r="P66">
+        <v>0.99999999893672842</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -3445,28 +3847,34 @@
         <v>0.88030352052717697</v>
       </c>
       <c r="I67">
-        <v>0.84652804494230838</v>
+        <v>0.89921193316359915</v>
       </c>
       <c r="J67">
-        <v>0.85696616178897822</v>
+        <v>0.91327469850924892</v>
       </c>
       <c r="K67">
-        <v>0.86568604899129931</v>
+        <v>0.77828133215731576</v>
       </c>
       <c r="L67">
-        <v>0.82190917028903265</v>
+        <v>0.58849255386244859</v>
       </c>
       <c r="M67">
-        <v>0.70906501997962434</v>
+        <v>0.42483044334338965</v>
       </c>
       <c r="N67">
-        <v>0.72719939789072441</v>
+        <v>0.44449667048960867</v>
       </c>
       <c r="O67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.35902303205613723</v>
+      </c>
+      <c r="P67">
+        <v>0.19303899874079974</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -3480,28 +3888,34 @@
         <v>0.99999497167690343</v>
       </c>
       <c r="I68">
-        <v>0.99999858174990397</v>
+        <v>0.99999936729431271</v>
       </c>
       <c r="J68">
-        <v>0.99999980330814053</v>
+        <v>0.99999986578963584</v>
       </c>
       <c r="K68">
-        <v>0.99999995675568376</v>
+        <v>0.99999986305064914</v>
       </c>
       <c r="L68">
-        <v>0.9999999687442066</v>
+        <v>0.9999998544913159</v>
       </c>
       <c r="M68">
-        <v>0.99999997558141129</v>
+        <v>0.99999987048127914</v>
       </c>
       <c r="N68">
-        <v>0.99999999472980083</v>
+        <v>0.99999998920677191</v>
       </c>
       <c r="O68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999483802127</v>
+      </c>
+      <c r="P68">
+        <v>0.99999999483802127</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -3515,28 +3929,34 @@
         <v>0.9999990888069975</v>
       </c>
       <c r="I69">
-        <v>0.99999978359151154</v>
+        <v>0.99999984918173324</v>
       </c>
       <c r="J69">
-        <v>0.99999997156676257</v>
+        <v>0.99999998074660168</v>
       </c>
       <c r="K69">
-        <v>0.99999999558132102</v>
+        <v>0.99999998521614042</v>
       </c>
       <c r="L69">
-        <v>0.99999999771313974</v>
+        <v>0.99999998844170968</v>
       </c>
       <c r="M69">
-        <v>0.99999999854872323</v>
+        <v>0.99999999159397068</v>
       </c>
       <c r="N69">
-        <v>0.99999999972209597</v>
+        <v>0.99999999943959805</v>
       </c>
       <c r="O69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999977116927</v>
+      </c>
+      <c r="P69">
+        <v>0.99999999980350407</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -3562,28 +3982,34 @@
         <v>0.99</v>
       </c>
       <c r="I70">
-        <v>0.99873896595208078</v>
+        <v>0.99767441860465123</v>
       </c>
       <c r="J70">
-        <v>0.99988057664420371</v>
+        <v>0.99966711051930757</v>
       </c>
       <c r="K70">
-        <v>0.9999746201500227</v>
+        <v>0.99975031210986265</v>
       </c>
       <c r="L70">
-        <v>0.99998612023492295</v>
+        <v>0.99978799285771491</v>
       </c>
       <c r="M70">
-        <v>0.99998920459386509</v>
+        <v>0.99983038709434247</v>
       </c>
       <c r="N70">
-        <v>0.9999984392039768</v>
+        <v>0.99996008590400431</v>
       </c>
       <c r="O70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9999821276227735</v>
+      </c>
+      <c r="P70">
+        <v>0.99998176288703289</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -3609,28 +4035,34 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="I71">
-        <v>0.96666666666666667</v>
+        <v>0.97791798107255523</v>
       </c>
       <c r="J71">
-        <v>0.99711286089238849</v>
+        <v>0.9982951316537223</v>
       </c>
       <c r="K71">
-        <v>0.99962652678397124</v>
+        <v>0.99887662784945896</v>
       </c>
       <c r="L71">
-        <v>0.99983228363332555</v>
+        <v>0.9989096321806854</v>
       </c>
       <c r="M71">
-        <v>0.99989078295280964</v>
+        <v>0.99925984814618418</v>
       </c>
       <c r="N71">
-        <v>0.99998657038812033</v>
+        <v>0.99993012751605648</v>
       </c>
       <c r="O71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99997648413160811</v>
+      </c>
+      <c r="P71">
+        <v>0.9999830799343099</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>151</v>
       </c>
@@ -3641,28 +4073,34 @@
         <v>0.99899121149670156</v>
       </c>
       <c r="I72">
-        <v>0.9993512593757069</v>
+        <v>0.99952897861261514</v>
       </c>
       <c r="J72">
-        <v>0.99971508335394288</v>
+        <v>0.99975089891460689</v>
       </c>
       <c r="K72">
-        <v>0.99985104604345421</v>
+        <v>0.99930835883135838</v>
       </c>
       <c r="L72">
-        <v>0.99979969289862303</v>
+        <v>0.998218239626388</v>
       </c>
       <c r="M72">
-        <v>0.99960836329613734</v>
+        <v>0.9967752277620805</v>
       </c>
       <c r="N72">
-        <v>0.99978801733923395</v>
+        <v>0.99829017290795408</v>
       </c>
       <c r="O72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99789857821388817</v>
+      </c>
+      <c r="P72">
+        <v>0.99535869509982133</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -3688,28 +4126,34 @@
         <v>0.99</v>
       </c>
       <c r="I73">
-        <v>0.99873896595208078</v>
+        <v>0.99887155658811821</v>
       </c>
       <c r="J73">
-        <v>0.9998940565737896</v>
+        <v>0.99994015096040112</v>
       </c>
       <c r="K73">
-        <v>0.99999128228822498</v>
+        <v>0.99995694996758588</v>
       </c>
       <c r="L73">
-        <v>0.99999500711011302</v>
+        <v>0.99995515629667375</v>
       </c>
       <c r="M73">
-        <v>0.99999633174950953</v>
+        <v>0.99996816055657678</v>
       </c>
       <c r="N73">
-        <v>0.999999447248204</v>
+        <v>0.99999843407832723</v>
       </c>
       <c r="O73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999930403420667</v>
+      </c>
+      <c r="P73">
+        <v>0.99999941628668843</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -3720,28 +4164,34 @@
         <v>0.99999172391910196</v>
       </c>
       <c r="I74">
-        <v>0.9999980361717975</v>
+        <v>0.99999857541893733</v>
       </c>
       <c r="J74">
-        <v>0.99999963966397221</v>
+        <v>0.99999968633042668</v>
       </c>
       <c r="K74">
-        <v>0.99999992852837061</v>
+        <v>0.99999980039206704</v>
       </c>
       <c r="L74">
-        <v>0.99999995850034296</v>
+        <v>0.9999998442084358</v>
       </c>
       <c r="M74">
-        <v>0.99999996950025183</v>
+        <v>0.99999989908954945</v>
       </c>
       <c r="N74">
-        <v>0.99999999290092045</v>
+        <v>0.99999998812818125</v>
       </c>
       <c r="O74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999506320403</v>
+      </c>
+      <c r="P74">
+        <v>0.99999999564023223</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -3764,28 +4214,34 @@
         <v>0.99</v>
       </c>
       <c r="I75">
-        <v>0.99691192266380235</v>
+        <v>0.99731363331094691</v>
       </c>
       <c r="J75">
-        <v>0.99910149230408629</v>
+        <v>0.99908914949333949</v>
       </c>
       <c r="K75">
-        <v>0.99964821763602252</v>
+        <v>0.99907019108521988</v>
       </c>
       <c r="L75">
-        <v>0.99971334384405908</v>
+        <v>0.99888021586781983</v>
       </c>
       <c r="M75">
-        <v>0.99973088949796263</v>
+        <v>0.9987586512928639</v>
       </c>
       <c r="N75">
-        <v>0.99991775642117553</v>
+        <v>0.99955630710470733</v>
       </c>
       <c r="O75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99974113128682562</v>
+      </c>
+      <c r="P75">
+        <v>0.99975665963002347</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -3799,28 +4255,34 @@
         <v>0.99999616554031823</v>
       </c>
       <c r="I76">
-        <v>0.99999878911481843</v>
+        <v>0.99999936967584091</v>
       </c>
       <c r="J76">
-        <v>0.99999983206684351</v>
+        <v>0.99999987769823528</v>
       </c>
       <c r="K76">
-        <v>0.99999996161527349</v>
+        <v>0.99999989385129684</v>
       </c>
       <c r="L76">
-        <v>0.9999999688124096</v>
+        <v>0.99999988721700361</v>
       </c>
       <c r="M76">
-        <v>0.99999996769856714</v>
+        <v>0.99999988456328637</v>
       </c>
       <c r="N76">
-        <v>0.99999999030956988</v>
+        <v>0.99999997648511174</v>
       </c>
       <c r="O76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999998615478536</v>
+      </c>
+      <c r="P76">
+        <v>0.99999998407800317</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -3834,28 +4296,34 @@
         <v>0.99999537605273248</v>
       </c>
       <c r="I77">
-        <v>0.99999891536655516</v>
+        <v>0.9999991592791343</v>
       </c>
       <c r="J77">
-        <v>0.99999983001997628</v>
+        <v>0.99999980598736704</v>
       </c>
       <c r="K77">
-        <v>0.99999996812874126</v>
+        <v>0.99999983832280059</v>
       </c>
       <c r="L77">
-        <v>0.99999997781510397</v>
+        <v>0.9999998350232665</v>
       </c>
       <c r="M77">
-        <v>0.99999997980925182</v>
+        <v>0.99999985496550625</v>
       </c>
       <c r="N77">
-        <v>0.99999999487697433</v>
+        <v>0.99999997626708004</v>
       </c>
       <c r="O77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999998693600722</v>
+      </c>
+      <c r="P77">
+        <v>0.99999998478623631</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -3869,28 +4337,34 @@
         <v>0.87686644202836495</v>
       </c>
       <c r="I78">
-        <v>0.8223428997345793</v>
+        <v>0.8547099212623257</v>
       </c>
       <c r="J78">
-        <v>0.78092871155293575</v>
+        <v>0.80436738554196474</v>
       </c>
       <c r="K78">
-        <v>0.69346110712046993</v>
+        <v>0.46321205349775951</v>
       </c>
       <c r="L78">
-        <v>0.41452875107427734</v>
+        <v>0.21867075277965514</v>
       </c>
       <c r="M78">
-        <v>0.16082466503814738</v>
+        <v>0.01</v>
       </c>
       <c r="N78">
-        <v>0.12955035410841492</v>
+        <v>4.9088359046283309E-3</v>
       </c>
       <c r="O78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.4289167629126269E-3</v>
+      </c>
+      <c r="P78">
+        <v>4.5109965571491921E-4</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -3901,28 +4375,34 @@
         <v>0.99999939332167831</v>
       </c>
       <c r="I79">
-        <v>0.99999988257833194</v>
+        <v>0.99999992234513368</v>
       </c>
       <c r="J79">
-        <v>0.99999998545218127</v>
+        <v>0.99999998995842188</v>
       </c>
       <c r="K79">
-        <v>0.99999999749586721</v>
+        <v>0.99999999191775413</v>
       </c>
       <c r="L79">
-        <v>0.99999999823237684</v>
+        <v>0.99999999146874052</v>
       </c>
       <c r="M79">
-        <v>0.99999999842092324</v>
+        <v>0.99999999308859988</v>
       </c>
       <c r="N79">
-        <v>0.99999999967608688</v>
+        <v>0.99999999930885997</v>
       </c>
       <c r="O79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999964328257</v>
+      </c>
+      <c r="P79">
+        <v>0.99999999964823705</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -3936,28 +4416,34 @@
         <v>0.99999979038852316</v>
       </c>
       <c r="I80">
-        <v>0.99999996587719553</v>
+        <v>0.99999998118871003</v>
       </c>
       <c r="J80">
-        <v>0.99999999689792674</v>
+        <v>0.99999999746514534</v>
       </c>
       <c r="K80">
-        <v>0.99999999961477526</v>
+        <v>0.99999999813221241</v>
       </c>
       <c r="L80">
-        <v>0.99999999977027887</v>
+        <v>0.9999999983118073</v>
       </c>
       <c r="M80">
-        <v>0.99999999980273957</v>
+        <v>0.99999999869469647</v>
       </c>
       <c r="N80">
-        <v>0.99999999996892475</v>
+        <v>0.99999999995856181</v>
       </c>
       <c r="O80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999998070987</v>
+      </c>
+      <c r="P80">
+        <v>0.99999999998158662</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -3971,28 +4457,34 @@
         <v>0.98454641413708743</v>
       </c>
       <c r="I81">
-        <v>0.98117692483605135</v>
+        <v>0.98608739476641583</v>
       </c>
       <c r="J81">
-        <v>0.98141376105388789</v>
+        <v>0.98625891265278887</v>
       </c>
       <c r="K81">
-        <v>0.9803161471891656</v>
+        <v>0.94783718757581681</v>
       </c>
       <c r="L81">
-        <v>0.95416904263192381</v>
+        <v>0.83028190899272725</v>
       </c>
       <c r="M81">
-        <v>0.80412192620588152</v>
+        <v>0.55732672938187389</v>
       </c>
       <c r="N81">
-        <v>0.8187006078494844</v>
+        <v>0.45632523685072357</v>
       </c>
       <c r="O81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.2389056966506915</v>
+      </c>
+      <c r="P81">
+        <v>7.2271533016722525E-2</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -4006,28 +4498,34 @@
         <v>0.99999558402576916</v>
       </c>
       <c r="I82">
-        <v>0.9999990955201743</v>
+        <v>0.99999912770570276</v>
       </c>
       <c r="J82">
-        <v>0.99999978073201323</v>
+        <v>0.99999979404148698</v>
       </c>
       <c r="K82">
-        <v>0.99999995398078489</v>
+        <v>0.99999979816065643</v>
       </c>
       <c r="L82">
-        <v>0.99999996384204481</v>
+        <v>0.99999973713947565</v>
       </c>
       <c r="M82">
-        <v>0.99999996153409032</v>
+        <v>0.99999970917559822</v>
       </c>
       <c r="N82">
-        <v>0.99999999112325133</v>
+        <v>0.99999990911735626</v>
       </c>
       <c r="O82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999993888925509</v>
+      </c>
+      <c r="P82">
+        <v>0.99999992666710702</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -4041,28 +4539,34 @@
         <v>0.99994408687017911</v>
       </c>
       <c r="I83">
-        <v>0.99998672006549405</v>
+        <v>0.99997923153615065</v>
       </c>
       <c r="J83">
-        <v>0.99999647248299495</v>
+        <v>0.99999307708286467</v>
       </c>
       <c r="K83">
-        <v>0.99999890360691401</v>
+        <v>0.9999948078031623</v>
       </c>
       <c r="L83">
-        <v>0.99999928734422061</v>
+        <v>0.99999521503233813</v>
       </c>
       <c r="M83">
-        <v>0.99999931643219164</v>
+        <v>0.9999957671416545</v>
       </c>
       <c r="N83">
-        <v>0.99999980601444582</v>
+        <v>0.99999867722791758</v>
       </c>
       <c r="O83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999913335582657</v>
+      </c>
+      <c r="P83">
+        <v>0.99999909724568525</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -4076,28 +4580,34 @@
         <v>0.99999971200805982</v>
       </c>
       <c r="I84">
-        <v>0.99999995542980802</v>
+        <v>0.99</v>
       </c>
       <c r="J84">
-        <v>0.99999999652289262</v>
+        <v>0.9987661489330818</v>
       </c>
       <c r="K84">
-        <v>0.99999999956248309</v>
+        <v>0.99899871792062078</v>
       </c>
       <c r="L84">
-        <v>0.9999999997223451</v>
+        <v>0.99881688202161178</v>
       </c>
       <c r="M84">
-        <v>0.99999999976245091</v>
+        <v>0.99902244052773392</v>
       </c>
       <c r="N84">
-        <v>0.9999999999623197</v>
+        <v>0.99998471092079266</v>
       </c>
       <c r="O84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9999932195680501</v>
+      </c>
+      <c r="P84">
+        <v>0.99999337910656916</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -4111,28 +4621,34 @@
         <v>0.99999982240260699</v>
       </c>
       <c r="I85">
-        <v>0.99999998455674599</v>
+        <v>0.99999997496949111</v>
       </c>
       <c r="J85">
-        <v>0.99999999822235919</v>
+        <v>0.99999999680461582</v>
       </c>
       <c r="K85">
-        <v>0.99999999981650156</v>
+        <v>0.9999999978336378</v>
       </c>
       <c r="L85">
-        <v>0.99999999990503152</v>
+        <v>0.99999999804194184</v>
       </c>
       <c r="M85">
-        <v>0.99999999994120992</v>
+        <v>0.9999999987385586</v>
       </c>
       <c r="N85">
-        <v>0.99999999998923561</v>
+        <v>0.99999999989487987</v>
       </c>
       <c r="O85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999996185152</v>
+      </c>
+      <c r="P85">
+        <v>0.99999999996875077</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -4143,28 +4659,34 @@
         <v>0.99999989845665582</v>
       </c>
       <c r="I86">
-        <v>0.99999998227020825</v>
+        <v>0.99999998984566463</v>
       </c>
       <c r="J86">
-        <v>0.99999999898271685</v>
+        <v>0.99999999926299177</v>
       </c>
       <c r="K86">
-        <v>0.99999999989128274</v>
+        <v>0.99999999949749441</v>
       </c>
       <c r="L86">
-        <v>0.99999999993687383</v>
+        <v>0.99999999954903351</v>
       </c>
       <c r="M86">
-        <v>0.99999999995618305</v>
+        <v>0.99999999969061604</v>
       </c>
       <c r="N86">
-        <v>0.99999999999328615</v>
+        <v>0.99999999999437483</v>
       </c>
       <c r="O86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999999733247</v>
+      </c>
+      <c r="P86">
+        <v>0.99999999999770872</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -4178,28 +4700,34 @@
         <v>0.34629662196479205</v>
       </c>
       <c r="I87">
-        <v>0.20692800753442975</v>
+        <v>0.25160054813472055</v>
       </c>
       <c r="J87">
-        <v>0.12136875434846961</v>
+        <v>0.15686098543531063</v>
       </c>
       <c r="K87">
-        <v>6.8901563400749571E-2</v>
+        <v>5.3301761990963328E-2</v>
       </c>
       <c r="L87">
-        <v>0.01</v>
+        <v>1.8666163241946081E-2</v>
       </c>
       <c r="M87">
-        <v>3.0747943731262968E-3</v>
+        <v>5.9179742096109106E-3</v>
       </c>
       <c r="N87">
-        <v>1.6948901181550269E-3</v>
+        <v>2.1039907043307435E-3</v>
       </c>
       <c r="O87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.0761143252116736E-4</v>
+      </c>
+      <c r="P87">
+        <v>1.692610900833273E-4</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -4213,28 +4741,34 @@
         <v>0.96704556406735054</v>
       </c>
       <c r="I88">
-        <v>0.96071360905152792</v>
+        <v>0.97197338478073469</v>
       </c>
       <c r="J88">
-        <v>0.95136963915642636</v>
+        <v>0.97546346211432589</v>
       </c>
       <c r="K88">
-        <v>0.94842566369310499</v>
+        <v>0.89297666400640652</v>
       </c>
       <c r="L88">
-        <v>0.86135499209129573</v>
+        <v>0.01</v>
       </c>
       <c r="M88">
-        <v>0.6862802289849238</v>
+        <v>3.2653061224489806E-3</v>
       </c>
       <c r="N88">
-        <v>0.69079514764193528</v>
+        <v>2.4509803921568636E-3</v>
       </c>
       <c r="O88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2853470437017998E-3</v>
+      </c>
+      <c r="P88">
+        <v>5.1453563159248783E-4</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -4248,28 +4782,34 @@
         <v>0.99999998770408172</v>
       </c>
       <c r="I89">
-        <v>0.99999999870569278</v>
+        <v>0.99999999980787624</v>
       </c>
       <c r="J89">
-        <v>0.99999999997806266</v>
+        <v>0.9999999999967436</v>
       </c>
       <c r="K89">
-        <v>0.99999999999893852</v>
+        <v>0.99999999999824651</v>
       </c>
       <c r="L89">
-        <v>0.99999999999962397</v>
+        <v>0.99999999999868483</v>
       </c>
       <c r="M89">
-        <v>0.99999999999980771</v>
+        <v>0.99999999999935774</v>
       </c>
       <c r="N89">
-        <v>0.99999999999997202</v>
+        <v>0.99</v>
       </c>
       <c r="O89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99771819737592704</v>
+      </c>
+      <c r="P89">
+        <v>0.99883126369612862</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -4283,28 +4823,34 @@
         <v>0.99999991657661391</v>
       </c>
       <c r="I90">
-        <v>0.99999998510296573</v>
+        <v>0.99999999246498394</v>
       </c>
       <c r="J90">
-        <v>0.99999999862651456</v>
+        <v>0.99999999932444683</v>
       </c>
       <c r="K90">
-        <v>0.99999999984739052</v>
+        <v>0.99999999947184015</v>
       </c>
       <c r="L90">
-        <v>0.99999999990956479</v>
+        <v>0.9999999994029497</v>
       </c>
       <c r="M90">
-        <v>0.99999999993123156</v>
+        <v>0.99999999958206476</v>
       </c>
       <c r="N90">
-        <v>0.99999999998901612</v>
+        <v>0.99999999998651823</v>
       </c>
       <c r="O90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9999999999947633</v>
+      </c>
+      <c r="P90">
+        <v>0.99999999999566436</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -4318,28 +4864,34 @@
         <v>0.99999998364960985</v>
       </c>
       <c r="I91">
-        <v>0.99999999872830303</v>
+        <v>0.99999999814695584</v>
       </c>
       <c r="J91">
-        <v>0.99999999991107025</v>
+        <v>0.99999999988731492</v>
       </c>
       <c r="K91">
-        <v>0.99999999999320288</v>
+        <v>0.99999999993238897</v>
       </c>
       <c r="L91">
-        <v>0.99999999999651112</v>
+        <v>0.99999999994034328</v>
       </c>
       <c r="M91">
-        <v>0.99999999999762745</v>
+        <v>0.9999999999645437</v>
       </c>
       <c r="N91">
-        <v>0.99999999999974687</v>
+        <v>0.99999999999767497</v>
       </c>
       <c r="O91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.9999999999990894</v>
+      </c>
+      <c r="P91">
+        <v>0.99999999999927347</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -4365,28 +4917,34 @@
         <v>0.99</v>
       </c>
       <c r="I92">
-        <v>0.99810964083175813</v>
+        <v>0.99877495135836269</v>
       </c>
       <c r="J92">
-        <v>0.99977635639844342</v>
+        <v>0.99988276987726898</v>
       </c>
       <c r="K92">
-        <v>0.99997479571930503</v>
+        <v>0.9999204479905387</v>
       </c>
       <c r="L92">
-        <v>0.99998751547786302</v>
+        <v>0.99993574547090114</v>
       </c>
       <c r="M92">
-        <v>0.99999158934029619</v>
+        <v>0.99996208882908633</v>
       </c>
       <c r="N92">
-        <v>0.99999853449608556</v>
+        <v>0.99999661495715275</v>
       </c>
       <c r="O92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999862768257008</v>
+      </c>
+      <c r="P92">
+        <v>0.99999885108282527</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -4400,28 +4958,34 @@
         <v>0.87875485155736022</v>
       </c>
       <c r="I93">
-        <v>0.81557837422051616</v>
+        <v>0.86917456077160393</v>
       </c>
       <c r="J93">
-        <v>0.73432331451422095</v>
+        <v>0.8458772425013833</v>
       </c>
       <c r="K93">
-        <v>0.64616759473306007</v>
+        <v>0.4210851091079727</v>
       </c>
       <c r="L93">
-        <v>0.42032599313773583</v>
+        <v>0.1555958046783476</v>
       </c>
       <c r="M93">
-        <v>0.15876368614300501</v>
+        <v>5.0339875583323986E-2</v>
       </c>
       <c r="N93">
-        <v>0.10994822981652753</v>
+        <v>3.4132661703374513E-2</v>
       </c>
       <c r="O93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.4466861234575853E-2</v>
+      </c>
+      <c r="P93">
+        <v>3.7049588599535983E-3</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -4435,28 +4999,34 @@
         <v>0.99999990527532678</v>
       </c>
       <c r="I94">
-        <v>0.99999998788405253</v>
+        <v>0.9999999875878004</v>
       </c>
       <c r="J94">
-        <v>0.99999999904118397</v>
+        <v>0.99999999885561275</v>
       </c>
       <c r="K94">
-        <v>0.9999999999252871</v>
+        <v>0.99999999921699823</v>
       </c>
       <c r="L94">
-        <v>0.99999999996363531</v>
+        <v>0.99999999933745998</v>
       </c>
       <c r="M94">
-        <v>0.99999999997450717</v>
+        <v>0.9999999995986536</v>
       </c>
       <c r="N94">
-        <v>0.99999999999722533</v>
+        <v>0.99999999996479416</v>
       </c>
       <c r="O94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.99999999998709121</v>
+      </c>
+      <c r="P94">
+        <v>0.99999999998936084</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -4470,28 +5040,34 @@
         <v>7.4464352447853835E-2</v>
       </c>
       <c r="I95">
-        <v>2.8849590263058441E-2</v>
+        <v>3.7970064192287101E-2</v>
       </c>
       <c r="J95">
-        <v>1.2489412056414339E-2</v>
+        <v>1.4543232150141283E-2</v>
       </c>
       <c r="K95">
-        <v>4.4814327230540893E-3</v>
+        <v>6.4897748579359413E-3</v>
       </c>
       <c r="L95">
-        <v>1.0641320460454704E-3</v>
+        <v>3.5400059733657783E-3</v>
       </c>
       <c r="M95">
-        <v>3.6999771883849096E-4</v>
+        <v>1.0589221646217551E-3</v>
       </c>
       <c r="N95">
-        <v>1.629685200097888E-4</v>
+        <v>1.8343561490860247E-4</v>
       </c>
       <c r="O95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.4875665444278305E-5</v>
+      </c>
+      <c r="P95">
+        <v>5.5943192696704269E-6</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -4505,28 +5081,34 @@
         <v>4.9521801783211375E-2</v>
       </c>
       <c r="I96">
-        <v>1.8218788016167747E-2</v>
+        <v>2.0927837581909775E-2</v>
       </c>
       <c r="J96">
-        <v>6.6427399120568952E-3</v>
+        <v>7.3799740931733771E-3</v>
       </c>
       <c r="K96">
-        <v>2.6122960876748726E-3</v>
+        <v>2.4055000627482637E-3</v>
       </c>
       <c r="L96">
-        <v>5.8801113805677363E-4</v>
+        <v>1.1677501331905915E-3</v>
       </c>
       <c r="M96">
-        <v>2.0564351699771033E-4</v>
+        <v>3.3263753552313955E-4</v>
       </c>
       <c r="N96">
-        <v>9.0204939068284497E-5</v>
+        <v>5.4446744129533518E-5</v>
       </c>
       <c r="O96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.8469144028034228E-6</v>
+      </c>
+      <c r="P96">
+        <v>2.0915869905725888E-6</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -4540,28 +5122,34 @@
         <v>8.6465270584887496E-2</v>
       </c>
       <c r="I97">
-        <v>3.8798949282940122E-2</v>
+        <v>4.0283922216049241E-2</v>
       </c>
       <c r="J97">
-        <v>1.6692591862494173E-2</v>
+        <v>1.6585181084099915E-2</v>
       </c>
       <c r="K97">
-        <v>6.5507741577915772E-3</v>
+        <v>7.246827905321042E-3</v>
       </c>
       <c r="L97">
-        <v>1.5858096967144885E-3</v>
+        <v>3.8091021923403897E-3</v>
       </c>
       <c r="M97">
-        <v>5.3339370974500935E-4</v>
+        <v>1.1079264303316379E-3</v>
       </c>
       <c r="N97">
-        <v>2.5248046637990119E-4</v>
+        <v>2.5106645006353292E-4</v>
       </c>
       <c r="O97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="P97">
+        <v>3.3293697978596915E-3</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>203</v>
       </c>
@@ -4575,28 +5163,34 @@
         <v>0.95907785516416577</v>
       </c>
       <c r="I98">
-        <v>0.94226978061481359</v>
+        <v>0.95907785516416577</v>
       </c>
       <c r="J98">
-        <v>0.91666371730711349</v>
+        <v>0.95716715599393709</v>
       </c>
       <c r="K98">
-        <v>0.8966166994997139</v>
+        <v>0.55662464051935678</v>
       </c>
       <c r="L98">
-        <v>0.7456526390763859</v>
+        <v>0.14264770294757093</v>
       </c>
       <c r="M98">
-        <v>0.46441066809121317</v>
+        <v>3.7912208433785843E-2</v>
       </c>
       <c r="N98">
-        <v>0.39405934159255551</v>
+        <v>2.7860585127418222E-2</v>
       </c>
       <c r="O98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.3677607591010769E-2</v>
+      </c>
+      <c r="P98">
+        <v>3.9733665635914061E-3</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -4610,28 +5204,34 @@
         <v>0.44064447390387235</v>
       </c>
       <c r="I99">
-        <v>0.24605834196692913</v>
+        <v>0.32095803880391055</v>
       </c>
       <c r="J99">
-        <v>0.12081405852235848</v>
+        <v>0.19376759117829243</v>
       </c>
       <c r="K99">
-        <v>5.0335310661849667E-2</v>
+        <v>6.8644087619263716E-2</v>
       </c>
       <c r="L99">
-        <v>1.3240869976655332E-2</v>
+        <v>3.6068991187076863E-2</v>
       </c>
       <c r="M99">
-        <v>3.5187701035335516E-3</v>
+        <v>8.9191534764917254E-3</v>
       </c>
       <c r="N99">
-        <v>1.7904118220387003E-3</v>
+        <v>2.1130363735464004E-3</v>
       </c>
       <c r="O99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.0241005631982578E-4</v>
+      </c>
+      <c r="P99">
+        <v>1.150225636021482E-4</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>207</v>
       </c>
@@ -4645,28 +5245,34 @@
         <v>0.12513147757011342</v>
       </c>
       <c r="I100">
-        <v>5.573772269731346E-2</v>
+        <v>7.5352491132973237E-2</v>
       </c>
       <c r="J100">
-        <v>2.4113483126654362E-2</v>
+        <v>3.3993991597431522E-2</v>
       </c>
       <c r="K100">
-        <v>9.4902338203941908E-3</v>
+        <v>1.0909450582569235E-2</v>
       </c>
       <c r="L100">
-        <v>2.5426348322723216E-3</v>
+        <v>4.3578228536647213E-3</v>
       </c>
       <c r="M100">
-        <v>8.2403450553650834E-4</v>
+        <v>1.1230776877555752E-3</v>
       </c>
       <c r="N100">
-        <v>3.9387487069814277E-4</v>
+        <v>3.4583125456260396E-4</v>
       </c>
       <c r="O100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.3477998075932507E-5</v>
+      </c>
+      <c r="P100">
+        <v>1.0623069104624548E-5</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -4680,28 +5286,34 @@
         <v>0.90523842699021984</v>
       </c>
       <c r="I101">
-        <v>0.84517111850149229</v>
+        <v>0.885719320921459</v>
       </c>
       <c r="J101">
-        <v>0.76252815189335199</v>
+        <v>0.86592756293641904</v>
       </c>
       <c r="K101">
-        <v>0.67406730499879974</v>
+        <v>0.01</v>
       </c>
       <c r="L101">
-        <v>0.3849476435450816</v>
+        <v>2.1154803384768541E-3</v>
       </c>
       <c r="M101">
-        <v>0.13377719022479714</v>
+        <v>4.4473306782717877E-4</v>
       </c>
       <c r="N101">
-        <v>9.3347376741649238E-2</v>
+        <v>2.3952081628883623E-4</v>
       </c>
       <c r="O101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.0368727481019257E-4</v>
+      </c>
+      <c r="P101">
+        <v>2.8280480276183549E-5</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -4712,25 +5324,55 @@
         <v>75.280898876404507</v>
       </c>
       <c r="J102">
-        <v>76.404494382022463</v>
+        <v>77.528089887640448</v>
       </c>
       <c r="K102">
-        <v>78.651685393258433</v>
+        <v>82.022471910112358</v>
       </c>
       <c r="L102">
-        <v>84.269662921348328</v>
+        <v>86.516853932584269</v>
       </c>
       <c r="M102">
-        <v>85.393258426966284</v>
+        <v>88.764044943820224</v>
       </c>
       <c r="N102">
-        <v>85.393258426966284</v>
+        <v>89.887640449438194</v>
       </c>
       <c r="O102">
-        <v>85.393258426966284</v>
+        <v>89.887640449438194</v>
+      </c>
+      <c r="P102">
+        <v>89.887640449438194</v>
+      </c>
+      <c r="Q102">
+        <v>89.887640449438194</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:Q101">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H102:Q102">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/IN/outputs/590009/t_set_test.xlsx
+++ b/data/IN/outputs/590009/t_set_test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="L1" sqref="L1:Q102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,31 +1101,31 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>0.75462885297674687</v>
+        <v>0.66208343213026688</v>
       </c>
       <c r="I2">
-        <v>0.64854015800344822</v>
+        <v>0.54035377098020176</v>
       </c>
       <c r="J2">
-        <v>0.49948822616963207</v>
+        <v>0.43096100608287186</v>
       </c>
       <c r="K2">
-        <v>0.27018438925199073</v>
+        <v>0.54056690319720935</v>
       </c>
       <c r="L2">
-        <v>0.15387402293714578</v>
+        <v>0.46514268722732011</v>
       </c>
       <c r="M2">
-        <v>5.1179984983108759E-2</v>
+        <v>0.12961280398695896</v>
       </c>
       <c r="N2">
-        <v>1.3305736803106327E-2</v>
+        <v>4.1562686112625716E-2</v>
       </c>
       <c r="O2">
-        <v>2.2769090192219454E-3</v>
+        <v>2.5992545300693098E-2</v>
       </c>
       <c r="P2">
-        <v>5.7954311629668828E-4</v>
+        <v>1.1340301172906847E-2</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1142,31 +1142,31 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>0.6932078332573256</v>
+        <v>0.52516884907230532</v>
       </c>
       <c r="I3">
-        <v>0.58944826220683588</v>
+        <v>0.42440782182287051</v>
       </c>
       <c r="J3">
-        <v>0.44005270006339631</v>
+        <v>0.33120619348258701</v>
       </c>
       <c r="K3">
-        <v>0.19582655916113997</v>
+        <v>0.39496687641669365</v>
       </c>
       <c r="L3">
-        <v>8.1076011259551994E-2</v>
+        <v>0.28865917691820275</v>
       </c>
       <c r="M3">
-        <v>2.6060728782983031E-2</v>
+        <v>7.1398015855763011E-2</v>
       </c>
       <c r="N3">
-        <v>6.6450635958332721E-3</v>
+        <v>2.3904707876295481E-2</v>
       </c>
       <c r="O3">
-        <v>1.2558486531266367E-3</v>
+        <v>1.7297805375450202E-2</v>
       </c>
       <c r="P3">
-        <v>3.1673184874243056E-4</v>
+        <v>5.6183721318918871E-3</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1180,31 +1180,31 @@
         <v>16</v>
       </c>
       <c r="H4">
-        <v>0.10455898798793947</v>
+        <v>0.14010355676152003</v>
       </c>
       <c r="I4">
-        <v>4.2826740865724119E-2</v>
+        <v>7.5328686858269142E-2</v>
       </c>
       <c r="J4">
-        <v>1.4695143695941826E-2</v>
+        <v>3.9138468134232531E-2</v>
       </c>
       <c r="K4">
-        <v>4.6528844578715535E-3</v>
+        <v>7.0326466394455361E-2</v>
       </c>
       <c r="L4">
-        <v>2.2543135024382277E-3</v>
+        <v>3.7106869098088288E-2</v>
       </c>
       <c r="M4">
-        <v>5.8823876588010244E-4</v>
+        <v>6.5486621075455656E-3</v>
       </c>
       <c r="N4">
-        <v>1.1514467386244328E-4</v>
+        <v>1.6365553878672596E-3</v>
       </c>
       <c r="O4">
-        <v>1.4064893313112513E-5</v>
+        <v>7.310260113238407E-4</v>
       </c>
       <c r="P4">
-        <v>4.9866892632392129E-6</v>
+        <v>2.937372935723057E-4</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1221,31 +1221,31 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>0.99999983967958594</v>
+        <v>0.99999988019808228</v>
       </c>
       <c r="I5">
-        <v>0.99999998009815261</v>
+        <v>0.9999999704835828</v>
       </c>
       <c r="J5">
-        <v>0.99999999799549733</v>
+        <v>0.99999999185753985</v>
       </c>
       <c r="K5">
-        <v>0.99999999823603758</v>
+        <v>0.99999996306812822</v>
       </c>
       <c r="L5">
-        <v>0.99999999761865066</v>
+        <v>0.99999999550394592</v>
       </c>
       <c r="M5">
-        <v>0.99999999786499727</v>
+        <v>0.99999999645503435</v>
       </c>
       <c r="N5">
-        <v>0.999999999815948</v>
+        <v>0.99999999699842324</v>
       </c>
       <c r="O5">
-        <v>0.9999999999161906</v>
+        <v>0.99999999967255526</v>
       </c>
       <c r="P5">
-        <v>0.99999999992013455</v>
+        <v>0.99999999962126873</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1262,43 +1262,43 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>0.99989798000408081</v>
+        <v>0.99831932773109244</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.8</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="G6">
-        <v>0.8</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="H6">
-        <v>0.8</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="I6">
-        <v>0.96275071633237819</v>
+        <v>0.954337899543379</v>
       </c>
       <c r="J6">
-        <v>0.99512634025642943</v>
+        <v>0.99184790520278343</v>
       </c>
       <c r="K6">
-        <v>0.9972092224464385</v>
+        <v>0.98331466475232254</v>
       </c>
       <c r="L6">
-        <v>0.99767326980763305</v>
+        <v>0.99569333394980375</v>
       </c>
       <c r="M6">
-        <v>0.99848639276047912</v>
+        <v>0.99741154131903276</v>
       </c>
       <c r="N6">
-        <v>0.99984045685604084</v>
+        <v>0.99828049970282795</v>
       </c>
       <c r="O6">
-        <v>0.99993195331509244</v>
+        <v>0.99982978563361491</v>
       </c>
       <c r="P6">
-        <v>0.99993331415803544</v>
+        <v>0.99986011662383312</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1315,31 +1315,31 @@
         <v>22</v>
       </c>
       <c r="H7">
-        <v>0.16627994432391707</v>
+        <v>0.29541329819037737</v>
       </c>
       <c r="I7">
-        <v>9.7498850588925795E-2</v>
+        <v>0.21361444209534411</v>
       </c>
       <c r="J7">
-        <v>4.4686388211903016E-2</v>
+        <v>0.14490742306571888</v>
       </c>
       <c r="K7">
-        <v>1.9844827116250029E-2</v>
+        <v>0.18430739423732886</v>
       </c>
       <c r="L7">
-        <v>1.275125133178185E-2</v>
+        <v>0.1198657170922855</v>
       </c>
       <c r="M7">
-        <v>3.7714307161885322E-3</v>
+        <v>4.5309826868912981E-2</v>
       </c>
       <c r="N7">
-        <v>8.7962285048618196E-4</v>
+        <v>1.5044758637581783E-2</v>
       </c>
       <c r="O7">
-        <v>1.9641369703203598E-4</v>
+        <v>8.1069697302173123E-3</v>
       </c>
       <c r="P7">
-        <v>4.8704805317609636E-5</v>
+        <v>3.790357940442292E-3</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1356,34 +1356,34 @@
         <v>24</v>
       </c>
       <c r="H8">
-        <v>0.94711279748942501</v>
+        <v>0.97763000335602468</v>
       </c>
       <c r="I8">
-        <v>0.94590734223243977</v>
+        <v>0.97729623063236948</v>
       </c>
       <c r="J8">
-        <v>0.93451569431558867</v>
+        <v>0.97585130652364682</v>
       </c>
       <c r="K8">
-        <v>0.79558654155415887</v>
+        <v>0.96991329946150584</v>
       </c>
       <c r="L8">
-        <v>0.60888890977080645</v>
+        <v>0.97480139239106867</v>
       </c>
       <c r="M8">
-        <v>0.32930763500844823</v>
+        <v>0.9337410264627658</v>
       </c>
       <c r="N8">
-        <v>0.2007720768362331</v>
+        <v>0.84111678547666213</v>
       </c>
       <c r="O8">
-        <v>7.6704191428404733E-2</v>
+        <v>0.85216947325043257</v>
       </c>
       <c r="P8">
-        <v>0.01</v>
+        <v>0.63195863843982747</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1397,31 +1397,31 @@
         <v>26</v>
       </c>
       <c r="H9">
-        <v>0.31427036675000142</v>
+        <v>0.25029472774955996</v>
       </c>
       <c r="I9">
-        <v>0.21118240900692928</v>
+        <v>0.18405938713666098</v>
       </c>
       <c r="J9">
-        <v>0.11910744338095948</v>
+        <v>0.11136536669461636</v>
       </c>
       <c r="K9">
-        <v>1.8731228446883564E-2</v>
+        <v>0.11921250448803415</v>
       </c>
       <c r="L9">
-        <v>4.628311332661738E-3</v>
+        <v>7.5109079272779836E-2</v>
       </c>
       <c r="M9">
-        <v>1.3855275816141469E-3</v>
+        <v>2.9625100980872298E-2</v>
       </c>
       <c r="N9">
-        <v>5.0427282853133702E-4</v>
+        <v>1.0797726779836469E-2</v>
       </c>
       <c r="O9">
-        <v>1.5174532898892939E-4</v>
+        <v>5.4281693346131541E-3</v>
       </c>
       <c r="P9">
-        <v>4.215610032398389E-5</v>
+        <v>1.7614421651086158E-3</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1438,31 +1438,31 @@
         <v>28</v>
       </c>
       <c r="H10">
-        <v>0.3236090156064938</v>
+        <v>0.3949623456937737</v>
       </c>
       <c r="I10">
-        <v>0.23441946026758789</v>
+        <v>0.2843598083502758</v>
       </c>
       <c r="J10">
-        <v>0.14891477176252549</v>
+        <v>0.18945345403983629</v>
       </c>
       <c r="K10">
-        <v>7.1661122684892886E-2</v>
+        <v>0.24655087008232163</v>
       </c>
       <c r="L10">
-        <v>3.6076602742308748E-2</v>
+        <v>0.18965679485993092</v>
       </c>
       <c r="M10">
-        <v>1.0620816236722347E-2</v>
+        <v>4.8534097671430042E-2</v>
       </c>
       <c r="N10">
-        <v>4.8327630937766855E-3</v>
+        <v>1.2653120005398333E-2</v>
       </c>
       <c r="O10">
-        <v>9.915304839857482E-4</v>
+        <v>6.4688668759824266E-3</v>
       </c>
       <c r="P10">
-        <v>2.5558235901612512E-4</v>
+        <v>2.7392976761806058E-3</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1479,31 +1479,31 @@
         <v>30</v>
       </c>
       <c r="H11">
-        <v>0.85251342342801217</v>
+        <v>0.80554642261996223</v>
       </c>
       <c r="I11">
-        <v>0.8230845922193849</v>
+        <v>0.75782902089352999</v>
       </c>
       <c r="J11">
-        <v>0.76602300396044043</v>
+        <v>0.68748190815447885</v>
       </c>
       <c r="K11">
-        <v>0.55393652463680199</v>
+        <v>0.6559442988273303</v>
       </c>
       <c r="L11">
-        <v>0.2927586462547575</v>
+        <v>0.6179767246643344</v>
       </c>
       <c r="M11">
-        <v>9.7337910459621257E-2</v>
+        <v>0.29091663211845403</v>
       </c>
       <c r="N11">
-        <v>6.182456285555029E-2</v>
+        <v>0.1024033602189824</v>
       </c>
       <c r="O11">
-        <v>1.580552604425095E-2</v>
+        <v>6.7512849969786071E-2</v>
       </c>
       <c r="P11">
-        <v>3.998783670651593E-3</v>
+        <v>2.7800330027902664E-2</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1523,28 +1523,28 @@
         <v>0.99993372286063387</v>
       </c>
       <c r="I12">
-        <v>0.99998555423369118</v>
+        <v>0.99998192354522319</v>
       </c>
       <c r="J12">
-        <v>0.99999511061698587</v>
+        <v>0.99999266454825642</v>
       </c>
       <c r="K12">
-        <v>0.9999945791651913</v>
+        <v>0.99998297143780068</v>
       </c>
       <c r="L12">
-        <v>0.99999259594762824</v>
+        <v>0.99999284299740987</v>
       </c>
       <c r="M12">
-        <v>0.99999144421600217</v>
+        <v>0.99999366880017271</v>
       </c>
       <c r="N12">
-        <v>0.99999857402583336</v>
+        <v>0.99999268395407148</v>
       </c>
       <c r="O12">
-        <v>0.99999912991358419</v>
+        <v>0.99999842565196317</v>
       </c>
       <c r="P12">
-        <v>0.99999921521610702</v>
+        <v>0.99999782013480742</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1564,28 +1564,28 @@
         <v>0.22499081826877279</v>
       </c>
       <c r="I13">
-        <v>0.14702693027012362</v>
+        <v>0.15357677283848614</v>
       </c>
       <c r="J13">
-        <v>7.5642230943920905E-2</v>
+        <v>0.11778766870292165</v>
       </c>
       <c r="K13">
-        <v>3.1230163232228596E-2</v>
+        <v>0.15472243170387223</v>
       </c>
       <c r="L13">
-        <v>1.0631401343642391E-2</v>
+        <v>0.1051719134371621</v>
       </c>
       <c r="M13">
-        <v>4.1454699486650178E-3</v>
+        <v>2.9293416365851702E-2</v>
       </c>
       <c r="N13">
-        <v>1.0890505440644784E-3</v>
+        <v>1.1555265234609195E-2</v>
       </c>
       <c r="O13">
-        <v>2.145677044038139E-4</v>
+        <v>7.5937592470591651E-3</v>
       </c>
       <c r="P13">
-        <v>7.7862643989278795E-5</v>
+        <v>3.0272624868505613E-3</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1602,31 +1602,31 @@
         <v>36</v>
       </c>
       <c r="H14">
-        <v>0.99999968444704601</v>
+        <v>0.99999970607929245</v>
       </c>
       <c r="I14">
-        <v>0.99999995545133569</v>
+        <v>0.99999992265242865</v>
       </c>
       <c r="J14">
-        <v>0.99999999436092835</v>
+        <v>0.99999997951057595</v>
       </c>
       <c r="K14">
-        <v>0.99999999566999853</v>
+        <v>0.99999995560624888</v>
       </c>
       <c r="L14">
-        <v>0.99999999520936012</v>
+        <v>0.99999999273556772</v>
       </c>
       <c r="M14">
-        <v>0.99999999647005477</v>
+        <v>0.99999999410621532</v>
       </c>
       <c r="N14">
-        <v>0.99999999982350274</v>
+        <v>0.99999999563423358</v>
       </c>
       <c r="O14">
-        <v>0.99999999992097133</v>
+        <v>0.99999999956849983</v>
       </c>
       <c r="P14">
-        <v>0.99999999991935851</v>
+        <v>0.99999999952927254</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -1643,43 +1643,43 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0.99989798000408081</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.66666666666666663</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="G15">
-        <v>0.33333333333333337</v>
+        <v>7.6923076923076872E-2</v>
       </c>
       <c r="H15">
-        <v>0.33333333333333337</v>
+        <v>7.6923076923076872E-2</v>
       </c>
       <c r="I15">
-        <v>0.17928286852589642</v>
+        <v>4.3701799485861156E-2</v>
       </c>
       <c r="J15">
-        <v>8.2837450233314791E-2</v>
+        <v>2.1227256510881184E-2</v>
       </c>
       <c r="K15">
-        <v>3.0575702336164658E-2</v>
+        <v>3.4885084427767332E-2</v>
       </c>
       <c r="L15">
-        <v>1.691270944227391E-2</v>
+        <v>2.0860202177134635E-2</v>
       </c>
       <c r="M15">
-        <v>5.5526433164811255E-3</v>
+        <v>3.8716062154017729E-3</v>
       </c>
       <c r="N15">
-        <v>8.9258614914996756E-4</v>
+        <v>1.1393488039135446E-3</v>
       </c>
       <c r="O15">
-        <v>1.3055439830875031E-4</v>
+        <v>5.2171930769966601E-4</v>
       </c>
       <c r="P15">
-        <v>5.2469883536607729E-5</v>
+        <v>1.9250083659451924E-4</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -1696,31 +1696,31 @@
         <v>40</v>
       </c>
       <c r="H16">
-        <v>0.99999928079837785</v>
+        <v>0.99999793300369244</v>
       </c>
       <c r="I16">
-        <v>0.99999988935352924</v>
+        <v>0.99999942979326861</v>
       </c>
       <c r="J16">
-        <v>0.99999998285758751</v>
+        <v>0.99999982610709814</v>
       </c>
       <c r="K16">
-        <v>0.99999998621884478</v>
+        <v>0.99999950856369435</v>
       </c>
       <c r="L16">
-        <v>0.99999998041625326</v>
+        <v>0.99999989330655048</v>
       </c>
       <c r="M16">
-        <v>0.99999998204823215</v>
+        <v>0.99999990528234473</v>
       </c>
       <c r="N16">
-        <v>0.99999999981866894</v>
+        <v>0.99999991425559553</v>
       </c>
       <c r="O16">
-        <v>0.99999999991810862</v>
+        <v>0.99999998570926485</v>
       </c>
       <c r="P16">
-        <v>0.99999999992813626</v>
+        <v>0.99999998344366048</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -1737,31 +1737,31 @@
         <v>42</v>
       </c>
       <c r="H17">
-        <v>0.999999865538998</v>
+        <v>0.99999987459361517</v>
       </c>
       <c r="I17">
-        <v>0.99999998603002405</v>
+        <v>0.99999997045714695</v>
       </c>
       <c r="J17">
-        <v>0.99999999855483002</v>
+        <v>0.99999999246147875</v>
       </c>
       <c r="K17">
-        <v>0.9999999989351378</v>
+        <v>0.99999997361517612</v>
       </c>
       <c r="L17">
-        <v>0.99999999903752845</v>
+        <v>0.99999999454961375</v>
       </c>
       <c r="M17">
-        <v>0.9999999993234111</v>
+        <v>0.99999999604075707</v>
       </c>
       <c r="N17">
-        <v>0.99999999996726185</v>
+        <v>0.99999999721782928</v>
       </c>
       <c r="O17">
-        <v>0.99999999998635913</v>
+        <v>0.99999999965222863</v>
       </c>
       <c r="P17">
-        <v>0.99999999998727873</v>
+        <v>0.99999999966395137</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -1778,31 +1778,31 @@
         <v>44</v>
       </c>
       <c r="H18">
-        <v>0.9999575101731234</v>
+        <v>0.99995800285985392</v>
       </c>
       <c r="I18">
-        <v>0.99998964958130621</v>
+        <v>0.99998580338893372</v>
       </c>
       <c r="J18">
-        <v>0.99999719057945435</v>
+        <v>0.99999618878966279</v>
       </c>
       <c r="K18">
-        <v>0.99999809530638151</v>
+        <v>0.99998988569785707</v>
       </c>
       <c r="L18">
-        <v>0.99999813340018284</v>
+        <v>0.9999968610567499</v>
       </c>
       <c r="M18">
-        <v>0.99999862460998534</v>
+        <v>0.99999816894737603</v>
       </c>
       <c r="N18">
-        <v>0.99999944984354017</v>
+        <v>0.9999987349083802</v>
       </c>
       <c r="O18">
-        <v>0.99999978779672238</v>
+        <v>0.99999972890866917</v>
       </c>
       <c r="P18">
-        <v>0.99999981582356512</v>
+        <v>0.99999976244573296</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -1819,31 +1819,31 @@
         <v>46</v>
       </c>
       <c r="H19">
-        <v>0.99999685122077087</v>
+        <v>0.99999546047532173</v>
       </c>
       <c r="I19">
-        <v>0.99999955650876793</v>
+        <v>0.99999927173123315</v>
       </c>
       <c r="J19">
-        <v>0.99999992092789103</v>
+        <v>0.99999980020934764</v>
       </c>
       <c r="K19">
-        <v>0.99999992429266138</v>
+        <v>0.99999935743034851</v>
       </c>
       <c r="L19">
-        <v>0.99999993060160586</v>
+        <v>0.99999985478644726</v>
       </c>
       <c r="M19">
-        <v>0.99999995326230484</v>
+        <v>0.99999991287186341</v>
       </c>
       <c r="N19">
-        <v>0.99999999603917822</v>
+        <v>0.99999994326539776</v>
       </c>
       <c r="O19">
-        <v>0.99999999847660703</v>
+        <v>0.99999998894156006</v>
       </c>
       <c r="P19">
-        <v>0.99999999858414068</v>
+        <v>0.99999999001668616</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -1875,28 +1875,28 @@
         <v>0.01</v>
       </c>
       <c r="I20">
-        <v>6.6516347237880503E-3</v>
+        <v>8.3272990586531516E-3</v>
       </c>
       <c r="J20">
-        <v>4.1767888281145204E-3</v>
+        <v>6.7434629302429673E-3</v>
       </c>
       <c r="K20">
-        <v>1.2245270602715217E-3</v>
+        <v>7.7728547721237339E-3</v>
       </c>
       <c r="L20">
-        <v>3.8298712878061329E-4</v>
+        <v>6.4702538805912549E-3</v>
       </c>
       <c r="M20">
-        <v>1.2543517530321364E-4</v>
+        <v>2.1323216873017107E-3</v>
       </c>
       <c r="N20">
-        <v>5.6449723315963122E-5</v>
+        <v>6.9919656408811933E-4</v>
       </c>
       <c r="O20">
-        <v>1.4113028336399333E-5</v>
+        <v>4.1694645316939347E-4</v>
       </c>
       <c r="P20">
-        <v>4.2953116640208236E-6</v>
+        <v>1.3902079387441297E-4</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -1913,31 +1913,31 @@
         <v>50</v>
       </c>
       <c r="H21">
-        <v>0.99999809825573749</v>
+        <v>0.99999271856017957</v>
       </c>
       <c r="I21">
-        <v>0.99999965179276307</v>
+        <v>0.99999802056897125</v>
       </c>
       <c r="J21">
-        <v>0.99999993141370691</v>
+        <v>0.99999926847022869</v>
       </c>
       <c r="K21">
-        <v>0.99999993800854237</v>
+        <v>0.99999773038548245</v>
       </c>
       <c r="L21">
-        <v>0.99999991926694043</v>
+        <v>0.99999963846779405</v>
       </c>
       <c r="M21">
-        <v>0.99999992823727968</v>
+        <v>0.99999966060241152</v>
       </c>
       <c r="N21">
-        <v>0.99999998671060664</v>
+        <v>0.99999969328513227</v>
       </c>
       <c r="O21">
-        <v>0.99999999261700367</v>
+        <v>0.99999994139204895</v>
       </c>
       <c r="P21">
-        <v>0.99999999140208018</v>
+        <v>0.99999993311798585</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1954,31 +1954,31 @@
         <v>52</v>
       </c>
       <c r="H22">
-        <v>0.99999875658540915</v>
+        <v>0.99999790908083619</v>
       </c>
       <c r="I22">
-        <v>0.99999981134379412</v>
+        <v>0.99999945716437666</v>
       </c>
       <c r="J22">
-        <v>0.99999997245894368</v>
+        <v>0.99999987227391784</v>
       </c>
       <c r="K22">
-        <v>0.99999998329476902</v>
+        <v>0.99999962001500153</v>
       </c>
       <c r="L22">
-        <v>0.99999998522229561</v>
+        <v>0.9999998846811391</v>
       </c>
       <c r="M22">
-        <v>0.99999999099263726</v>
+        <v>0.99999993718403191</v>
       </c>
       <c r="N22">
-        <v>0.99999999920988036</v>
+        <v>0.99999995866303948</v>
       </c>
       <c r="O22">
-        <v>0.99999999973451981</v>
+        <v>0.99999999146591745</v>
       </c>
       <c r="P22">
-        <v>0.99999999980294252</v>
+        <v>0.99999999268507223</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -1998,28 +1998,28 @@
         <v>0.99999861905690046</v>
       </c>
       <c r="I23">
-        <v>0.99999985908726408</v>
+        <v>0.99999973175895551</v>
       </c>
       <c r="J23">
-        <v>0.99999997741093283</v>
+        <v>0.99999992066108456</v>
       </c>
       <c r="K23">
-        <v>0.99999997885278802</v>
+        <v>0.99999971998035464</v>
       </c>
       <c r="L23">
-        <v>0.99999997303730481</v>
+        <v>0.99999993312962265</v>
       </c>
       <c r="M23">
-        <v>0.99999997837058496</v>
+        <v>0.99999994382888246</v>
       </c>
       <c r="N23">
-        <v>0.9999999981975487</v>
+        <v>0.99999995493965244</v>
       </c>
       <c r="O23">
-        <v>0.9999999990477616</v>
+        <v>0.99999999306763854</v>
       </c>
       <c r="P23">
-        <v>0.9999999991149785</v>
+        <v>0.9999999918544753</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2036,31 +2036,31 @@
         <v>56</v>
       </c>
       <c r="H24">
-        <v>0.99999998895810982</v>
+        <v>0.99999999118391447</v>
       </c>
       <c r="I24">
-        <v>0.99999999893388636</v>
+        <v>0.99999999790729288</v>
       </c>
       <c r="J24">
-        <v>0.99999999993195021</v>
+        <v>0.99999999952372876</v>
       </c>
       <c r="K24">
-        <v>0.99999999995424238</v>
+        <v>0.999999998421501</v>
       </c>
       <c r="L24">
-        <v>0.9999999999579029</v>
+        <v>0.99999999974564469</v>
       </c>
       <c r="M24">
-        <v>0.99999999997293754</v>
+        <v>0.99999999984044985</v>
       </c>
       <c r="N24">
-        <v>0.99999999999949885</v>
+        <v>0.99999999989974209</v>
       </c>
       <c r="O24">
-        <v>0.99999999999979594</v>
+        <v>0.99999999999065914</v>
       </c>
       <c r="P24">
-        <v>0.99999999999981293</v>
+        <v>0.99999999999178835</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -2077,31 +2077,31 @@
         <v>58</v>
       </c>
       <c r="H25">
-        <v>0.99999989841076109</v>
+        <v>0.99999980542427702</v>
       </c>
       <c r="I25">
-        <v>0.99999998700602644</v>
+        <v>0.9999999526361657</v>
       </c>
       <c r="J25">
-        <v>0.99999999886302726</v>
+        <v>0.99999998991608652</v>
       </c>
       <c r="K25">
-        <v>0.9999999991317664</v>
+        <v>0.99999997257175577</v>
       </c>
       <c r="L25">
-        <v>0.99999999911367821</v>
+        <v>0.99999999440952969</v>
       </c>
       <c r="M25">
-        <v>0.99999999923299077</v>
+        <v>0.99999999607156143</v>
       </c>
       <c r="N25">
-        <v>0.99999999999225242</v>
+        <v>0.99999999687250529</v>
       </c>
       <c r="O25">
-        <v>0.99999999999624722</v>
+        <v>0.99</v>
       </c>
       <c r="P25">
-        <v>0.99999999999616906</v>
+        <v>0.98989001222086426</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -2118,31 +2118,31 @@
         <v>60</v>
       </c>
       <c r="H26">
-        <v>0.9999999869177395</v>
+        <v>0.99999998936530865</v>
       </c>
       <c r="I26">
-        <v>0.99999999805533968</v>
+        <v>0.99999999788268579</v>
       </c>
       <c r="J26">
-        <v>0.99999999988409305</v>
+        <v>0.99999999953853402</v>
       </c>
       <c r="K26">
-        <v>0.99999999993376754</v>
+        <v>0.9999999984409933</v>
       </c>
       <c r="L26">
-        <v>0.99999999994480626</v>
+        <v>0.99999999972284326</v>
       </c>
       <c r="M26">
-        <v>0.99999999996966826</v>
+        <v>0.9999999998285386</v>
       </c>
       <c r="N26">
-        <v>0.99999999999801104</v>
+        <v>0.9999999998996324</v>
       </c>
       <c r="O26">
-        <v>0.99999999999936784</v>
+        <v>0.99999999999002198</v>
       </c>
       <c r="P26">
-        <v>0.99999999999951117</v>
+        <v>0.99999999999143296</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -2156,31 +2156,31 @@
         <v>62</v>
       </c>
       <c r="H27">
-        <v>0.99999520525944896</v>
+        <v>0.99999351751421173</v>
       </c>
       <c r="I27">
-        <v>0.9999992674672179</v>
+        <v>0.99999847110426887</v>
       </c>
       <c r="J27">
-        <v>0.99999983975836226</v>
+        <v>0.99999952551461757</v>
       </c>
       <c r="K27">
-        <v>0.99999984616802673</v>
+        <v>0.99999835248324365</v>
       </c>
       <c r="L27">
-        <v>0.99999981882012534</v>
+        <v>0.99999973756333904</v>
       </c>
       <c r="M27">
-        <v>0.99999981445434594</v>
+        <v>0.99999975095296134</v>
       </c>
       <c r="N27">
-        <v>0.99999997680678954</v>
+        <v>0.99999976415999814</v>
       </c>
       <c r="O27">
-        <v>0.99999998617327834</v>
+        <v>0.99999995522024421</v>
       </c>
       <c r="P27">
-        <v>0.9999999824363266</v>
+        <v>0.99999994234606526</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2197,31 +2197,31 @@
         <v>64</v>
       </c>
       <c r="H28">
-        <v>0.99738018865381073</v>
+        <v>0.99866343023260873</v>
       </c>
       <c r="I28">
-        <v>0.99871135751404794</v>
+        <v>0.99910855632951945</v>
       </c>
       <c r="J28">
-        <v>0.9992864570992489</v>
+        <v>0.99933739930181209</v>
       </c>
       <c r="K28">
-        <v>0.99827939082118855</v>
+        <v>0.99847328293362425</v>
       </c>
       <c r="L28">
-        <v>0.99400366126283601</v>
+        <v>0.99929088813782196</v>
       </c>
       <c r="M28">
-        <v>0.98732979649709618</v>
+        <v>0.9984530704870912</v>
       </c>
       <c r="N28">
-        <v>0.98912013269281573</v>
+        <v>0.99685720958532331</v>
       </c>
       <c r="O28">
-        <v>0.98524924509103184</v>
+        <v>0.99813324630358213</v>
       </c>
       <c r="P28">
-        <v>0.96569760185803122</v>
+        <v>0.99446077645433495</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>66</v>
       </c>
       <c r="D29">
-        <v>0.99989798000408081</v>
+        <v>0.9974811083123426</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2253,28 +2253,28 @@
         <v>0.99</v>
       </c>
       <c r="I29">
-        <v>0.99813293502613887</v>
+        <v>0.99703491641531627</v>
       </c>
       <c r="J29">
-        <v>0.99981163402104856</v>
+        <v>0.99925216064159461</v>
       </c>
       <c r="K29">
-        <v>0.99991283676990106</v>
+        <v>0.99836555288934403</v>
       </c>
       <c r="L29">
-        <v>0.99993988580138948</v>
+        <v>0.99956036929708536</v>
       </c>
       <c r="M29">
-        <v>0.99996994199723832</v>
+        <v>0.9997659548853981</v>
       </c>
       <c r="N29">
-        <v>0.9999978906075182</v>
+        <v>0.99988155383849586</v>
       </c>
       <c r="O29">
-        <v>0.9999992968681839</v>
+        <v>0.99997825777914517</v>
       </c>
       <c r="P29">
-        <v>0.99999958639292963</v>
+        <v>0.99998543859156053</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -2291,31 +2291,31 @@
         <v>68</v>
       </c>
       <c r="H30">
-        <v>0.99999992249472591</v>
+        <v>0.9999999320566606</v>
       </c>
       <c r="I30">
-        <v>0.99999999173277021</v>
+        <v>0.99999998447009297</v>
       </c>
       <c r="J30">
-        <v>0.9999999993110642</v>
+        <v>0.99999999595796929</v>
       </c>
       <c r="K30">
-        <v>0.99999999959130925</v>
+        <v>0.9999999874484311</v>
       </c>
       <c r="L30">
-        <v>0.99999999966990361</v>
+        <v>0.99999999748968615</v>
       </c>
       <c r="M30">
-        <v>0.99999999980321175</v>
+        <v>0.99999999836381326</v>
       </c>
       <c r="N30">
-        <v>0.99999999999375278</v>
+        <v>0.99999999894816571</v>
       </c>
       <c r="O30">
-        <v>0.99999999999756461</v>
+        <v>0.99999999987172761</v>
       </c>
       <c r="P30">
-        <v>0.99999999999813471</v>
+        <v>0.99999999987316879</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -2332,31 +2332,31 @@
         <v>70</v>
       </c>
       <c r="H31">
-        <v>0.99999979740838241</v>
+        <v>0.99999985447897821</v>
       </c>
       <c r="I31">
-        <v>0.99999998181869754</v>
+        <v>0.99999996714041073</v>
       </c>
       <c r="J31">
-        <v>0.99999999825658736</v>
+        <v>0.99999999129547279</v>
       </c>
       <c r="K31">
-        <v>0.99999999866130818</v>
+        <v>0.99999996841500194</v>
       </c>
       <c r="L31">
-        <v>0.9999999983935699</v>
+        <v>0.99999999489674696</v>
       </c>
       <c r="M31">
-        <v>0.9999999987579149</v>
+        <v>0.99999999619575675</v>
       </c>
       <c r="N31">
-        <v>0.99999999996056876</v>
+        <v>0.99999999709540888</v>
       </c>
       <c r="O31">
-        <v>0.99999999998310085</v>
+        <v>0.9999999996369261</v>
       </c>
       <c r="P31">
-        <v>0.99999999998460298</v>
+        <v>0.99999999962894637</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -2373,31 +2373,31 @@
         <v>72</v>
       </c>
       <c r="H32">
-        <v>0.99999981194441812</v>
+        <v>0.99999959726854204</v>
       </c>
       <c r="I32">
-        <v>0.99999998168289472</v>
+        <v>0.99999991154960521</v>
       </c>
       <c r="J32">
-        <v>0.99999999796476602</v>
+        <v>0.99999997340302649</v>
       </c>
       <c r="K32">
-        <v>0.99999999840881715</v>
+        <v>0.99999989683598944</v>
       </c>
       <c r="L32">
-        <v>0.99999999804718476</v>
+        <v>0.99999998558406711</v>
       </c>
       <c r="M32">
-        <v>0.99999999840035358</v>
+        <v>0.99999998824331671</v>
       </c>
       <c r="N32">
-        <v>0.99999999994921762</v>
+        <v>0.99999999041121568</v>
       </c>
       <c r="O32">
-        <v>0.99999999997571276</v>
+        <v>0.99999999883063606</v>
       </c>
       <c r="P32">
-        <v>0.9999999999754271</v>
+        <v>0.99999999870682099</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -2417,28 +2417,28 @@
         <v>0.99999999080582291</v>
       </c>
       <c r="I33">
-        <v>0.99999999899927328</v>
+        <v>0.99999999838130682</v>
       </c>
       <c r="J33">
-        <v>0.99999999997313493</v>
+        <v>0.99999999946043561</v>
       </c>
       <c r="K33">
-        <v>0.99999999998315237</v>
+        <v>0.99999999836747189</v>
       </c>
       <c r="L33">
-        <v>0.99999999998513445</v>
+        <v>0.99999999964251207</v>
       </c>
       <c r="M33">
-        <v>0.99999999999081834</v>
+        <v>0.99999999981567034</v>
       </c>
       <c r="N33">
-        <v>0.9999999999999073</v>
+        <v>0.9999999998861494</v>
       </c>
       <c r="O33">
-        <v>0.99999999999996603</v>
+        <v>0.99999999998808542</v>
       </c>
       <c r="P33">
-        <v>0.99999999999997624</v>
+        <v>0.99999999999123268</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -2455,28 +2455,28 @@
         <v>0.99999604732955405</v>
       </c>
       <c r="I34">
-        <v>0.99999941681714954</v>
+        <v>0.99999908784250835</v>
       </c>
       <c r="J34">
-        <v>0.99999991814973432</v>
+        <v>0.99999963162850491</v>
       </c>
       <c r="K34">
-        <v>0.99999993763789152</v>
+        <v>0.99999875229119439</v>
       </c>
       <c r="L34">
-        <v>0.99999994980610729</v>
+        <v>0.9999996577078939</v>
       </c>
       <c r="M34">
-        <v>0.99999997099908355</v>
+        <v>0.99999979164825525</v>
       </c>
       <c r="N34">
-        <v>0.99999999829406372</v>
+        <v>0.99999987961898129</v>
       </c>
       <c r="O34">
-        <v>0.99999999940948359</v>
+        <v>0.99999998058370465</v>
       </c>
       <c r="P34">
-        <v>0.99999999950151219</v>
+        <v>0.99999998406868063</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2493,43 +2493,43 @@
         <v>78</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>0.99664429530201348</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="G35">
+        <v>4.5454545454545414E-2</v>
+      </c>
+      <c r="H35">
+        <v>4.5454545454545414E-2</v>
+      </c>
+      <c r="I35">
+        <v>3.4280936454849462E-2</v>
+      </c>
+      <c r="J35">
+        <v>2.3415191319246111E-2</v>
+      </c>
+      <c r="K35">
+        <v>2.4904238307156372E-2</v>
+      </c>
+      <c r="L35">
+        <v>2.1592287007710962E-2</v>
+      </c>
+      <c r="M35">
         <v>0.01</v>
       </c>
-      <c r="H35">
-        <v>0.01</v>
-      </c>
-      <c r="I35">
-        <v>7.0385359845152214E-3</v>
-      </c>
-      <c r="J35">
-        <v>4.3628197930868562E-3</v>
-      </c>
-      <c r="K35">
-        <v>1.0396281800391391E-3</v>
-      </c>
-      <c r="L35">
-        <v>3.9011405099020132E-4</v>
-      </c>
-      <c r="M35">
-        <v>6.9685554184617516E-5</v>
-      </c>
       <c r="N35">
-        <v>2.7875387180929296E-5</v>
+        <v>2.3866348448687361E-3</v>
       </c>
       <c r="O35">
-        <v>7.2405097148474326E-6</v>
+        <v>1.6782855667441265E-3</v>
       </c>
       <c r="P35">
-        <v>2.4461298746123611E-6</v>
+        <v>5.4394721573411485E-4</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -2549,28 +2549,28 @@
         <v>0.99999991620737916</v>
       </c>
       <c r="I36">
-        <v>0.9999999899448847</v>
+        <v>0.99999998288742131</v>
       </c>
       <c r="J36">
-        <v>0.99999999886702928</v>
+        <v>0.99999999549668983</v>
       </c>
       <c r="K36">
-        <v>0.99999999922480942</v>
+        <v>0.99999998515124766</v>
       </c>
       <c r="L36">
-        <v>0.99999999931600836</v>
+        <v>0.99999999733746503</v>
       </c>
       <c r="M36">
-        <v>0.99999999956171415</v>
+        <v>0.99999999820967467</v>
       </c>
       <c r="N36">
-        <v>0.99999999997844491</v>
+        <v>0.99999999885280133</v>
       </c>
       <c r="O36">
-        <v>0.99999999999228917</v>
+        <v>0.99999999990874566</v>
       </c>
       <c r="P36">
-        <v>0.99999999999290257</v>
+        <v>0.99999999992334643</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -2587,31 +2587,31 @@
         <v>82</v>
       </c>
       <c r="H37">
-        <v>0.89713635391649937</v>
+        <v>0.95439834006676771</v>
       </c>
       <c r="I37">
-        <v>0.88182211121218301</v>
+        <v>0.94023387277227588</v>
       </c>
       <c r="J37">
-        <v>0.84744261107988617</v>
+        <v>0.93254633034125212</v>
       </c>
       <c r="K37">
-        <v>0.57818226244169313</v>
+        <v>0.93788181214301958</v>
       </c>
       <c r="L37">
-        <v>0.32552656487669202</v>
+        <v>0.93832675227637174</v>
       </c>
       <c r="M37">
-        <v>0.11554430123598908</v>
+        <v>0.75851565181696257</v>
       </c>
       <c r="N37">
-        <v>6.2650997869135347E-2</v>
+        <v>0.49019842497605542</v>
       </c>
       <c r="O37">
-        <v>2.1964462699885473E-2</v>
+        <v>0.47933766512498788</v>
       </c>
       <c r="P37">
-        <v>6.4722939332274949E-3</v>
+        <v>0.1923793653490751</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -2628,7 +2628,7 @@
         <v>84</v>
       </c>
       <c r="D38">
-        <v>0.99664429530201348</v>
+        <v>0.99873896595208078</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2643,28 +2643,28 @@
         <v>0.99</v>
       </c>
       <c r="I38">
-        <v>0.99827840629611408</v>
+        <v>0.99741132022668444</v>
       </c>
       <c r="J38">
-        <v>0.999896121472582</v>
+        <v>0.99930593881401431</v>
       </c>
       <c r="K38">
-        <v>0.99993133211471741</v>
+        <v>0.99852049991529168</v>
       </c>
       <c r="L38">
-        <v>0.99993133211471741</v>
+        <v>0.99968188544415693</v>
       </c>
       <c r="M38">
-        <v>0.99994849820190823</v>
+        <v>0.99979936364190825</v>
       </c>
       <c r="N38">
-        <v>0.99999742478409859</v>
+        <v>0.99986560259245538</v>
       </c>
       <c r="O38">
-        <v>0.99999888535268322</v>
+        <v>0.99998393803170127</v>
       </c>
       <c r="P38">
-        <v>0.99999912854824957</v>
+        <v>0.99998618322205468</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -2681,31 +2681,31 @@
         <v>86</v>
       </c>
       <c r="H39">
-        <v>0.99999889751705029</v>
+        <v>0.99999922056175183</v>
       </c>
       <c r="I39">
-        <v>0.99999981751989564</v>
+        <v>0.99999983910668422</v>
       </c>
       <c r="J39">
-        <v>0.99999997523483908</v>
+        <v>0.99999995403047592</v>
       </c>
       <c r="K39">
-        <v>0.99999998457252259</v>
+        <v>0.99999984593999003</v>
       </c>
       <c r="L39">
-        <v>0.99999998605593388</v>
+        <v>0.99999996819861792</v>
       </c>
       <c r="M39">
-        <v>0.99999999186596145</v>
+        <v>0.99999998186532735</v>
       </c>
       <c r="N39">
-        <v>0.99999999915854776</v>
+        <v>0.99999998960573633</v>
       </c>
       <c r="O39">
-        <v>0.99999999973047238</v>
+        <v>0.99999999833178477</v>
       </c>
       <c r="P39">
-        <v>0.9999999997739446</v>
+        <v>0.99999999866212441</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -2722,31 +2722,31 @@
         <v>88</v>
       </c>
       <c r="H40">
-        <v>0.99999989838729952</v>
+        <v>0.9999998515534968</v>
       </c>
       <c r="I40">
-        <v>0.99999998704267468</v>
+        <v>0.99999996146099968</v>
       </c>
       <c r="J40">
-        <v>0.99999999903040415</v>
+        <v>0.99999998991261041</v>
       </c>
       <c r="K40">
-        <v>0.99999999927280314</v>
+        <v>0.99999996619361409</v>
       </c>
       <c r="L40">
-        <v>0.99999999921091409</v>
+        <v>0.99999999222294389</v>
       </c>
       <c r="M40">
-        <v>0.99999999952357088</v>
+        <v>0.99999999532058492</v>
       </c>
       <c r="N40">
-        <v>0.99999999998487521</v>
+        <v>0.99999999718072519</v>
       </c>
       <c r="O40">
-        <v>0.99999999999479705</v>
+        <v>0.9999999997164043</v>
       </c>
       <c r="P40">
-        <v>0.99999999999548317</v>
+        <v>0.99999999972565212</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -2760,31 +2760,31 @@
         <v>90</v>
       </c>
       <c r="H41">
-        <v>0.99999919336612819</v>
+        <v>0.99999982145256783</v>
       </c>
       <c r="I41">
-        <v>0.99999988026520248</v>
+        <v>0.99999996032278737</v>
       </c>
       <c r="J41">
-        <v>0.99999998527850698</v>
+        <v>0.99999999022874575</v>
       </c>
       <c r="K41">
-        <v>0.99999999234482351</v>
+        <v>0.99999997300048216</v>
       </c>
       <c r="L41">
-        <v>0.99999999455631894</v>
+        <v>0.99999999433010123</v>
       </c>
       <c r="M41">
-        <v>0.99999999672208462</v>
+        <v>0.99999999633124204</v>
       </c>
       <c r="N41">
-        <v>0.99999999976160614</v>
+        <v>0.9999999978332168</v>
       </c>
       <c r="O41">
-        <v>0.99999999988557098</v>
+        <v>0.9999999997011334</v>
       </c>
       <c r="P41">
-        <v>0.9999999999138417</v>
+        <v>0.99999999977260146</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -2801,31 +2801,31 @@
         <v>92</v>
       </c>
       <c r="H42">
-        <v>0.99999909729538716</v>
+        <v>0.99999909428488798</v>
       </c>
       <c r="I42">
-        <v>0.99999987748999264</v>
+        <v>0.99999980979969039</v>
       </c>
       <c r="J42">
-        <v>0.99999998537193779</v>
+        <v>0.99999993759051553</v>
       </c>
       <c r="K42">
-        <v>0.99999999167713693</v>
+        <v>0.99999984325061186</v>
       </c>
       <c r="L42">
-        <v>0.9999999928661174</v>
+        <v>0.99999996221937382</v>
       </c>
       <c r="M42">
-        <v>0.99999999569141751</v>
+        <v>0.99999997505745042</v>
       </c>
       <c r="N42">
-        <v>0.9999999999293675</v>
+        <v>0.99999998455937389</v>
       </c>
       <c r="O42">
-        <v>0.99999999997625788</v>
+        <v>0.99999999704328435</v>
       </c>
       <c r="P42">
-        <v>0.99999999998264011</v>
+        <v>0.99999999777451509</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -2842,31 +2842,31 @@
         <v>94</v>
       </c>
       <c r="H43">
-        <v>0.99999524471857804</v>
+        <v>0.99999850409385793</v>
       </c>
       <c r="I43">
-        <v>0.99999888837172102</v>
+        <v>0.9999996718653662</v>
       </c>
       <c r="J43">
-        <v>0.99999978681082347</v>
+        <v>0.99999990560508323</v>
       </c>
       <c r="K43">
-        <v>0.99999979960217156</v>
+        <v>0.99999982005970534</v>
       </c>
       <c r="L43">
-        <v>0.99999981924901393</v>
+        <v>0.99999995169387423</v>
       </c>
       <c r="M43">
-        <v>0.99999983009407123</v>
+        <v>0.9999999653074183</v>
       </c>
       <c r="N43">
-        <v>0.99999995752351234</v>
+        <v>0.99999997526547391</v>
       </c>
       <c r="O43">
-        <v>0.99999997942545071</v>
+        <v>0.99999999466510214</v>
       </c>
       <c r="P43">
-        <v>0.99999997718908673</v>
+        <v>0.99999999532508954</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -2883,31 +2883,31 @@
         <v>96</v>
       </c>
       <c r="H44">
-        <v>0.7952913247224368</v>
+        <v>0.64896037454870281</v>
       </c>
       <c r="I44">
-        <v>0.74710509758730181</v>
+        <v>0.58957104924418913</v>
       </c>
       <c r="J44">
-        <v>0.66557486053282366</v>
+        <v>0.46572840938003501</v>
       </c>
       <c r="K44">
-        <v>0.45547510240221889</v>
+        <v>0.51239139187248184</v>
       </c>
       <c r="L44">
-        <v>0.27903003984173669</v>
+        <v>0.46096126948757271</v>
       </c>
       <c r="M44">
-        <v>0.11741725677560645</v>
+        <v>0.17229680819839388</v>
       </c>
       <c r="N44">
-        <v>6.7906962918428529E-2</v>
+        <v>6.8996855077939748E-2</v>
       </c>
       <c r="O44">
-        <v>1.9865110076243465E-2</v>
+        <v>4.5689084480635092E-2</v>
       </c>
       <c r="P44">
-        <v>7.1302734976306827E-3</v>
+        <v>2.2077499578832812E-2</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -2924,31 +2924,31 @@
         <v>98</v>
       </c>
       <c r="H45">
-        <v>0.99999929530544807</v>
+        <v>0.9999989504295278</v>
       </c>
       <c r="I45">
-        <v>0.99999989860503924</v>
+        <v>0.9999998047309081</v>
       </c>
       <c r="J45">
-        <v>0.99999998617341324</v>
+        <v>0.99999994982668428</v>
       </c>
       <c r="K45">
-        <v>0.99999998921526223</v>
+        <v>0.9999998118500919</v>
       </c>
       <c r="L45">
-        <v>0.99999998991861472</v>
+        <v>0.99999996183751294</v>
       </c>
       <c r="M45">
-        <v>0.99999999334836431</v>
+        <v>0.99999997325059287</v>
       </c>
       <c r="N45">
-        <v>0.99999999932356243</v>
+        <v>0.99999998216706176</v>
       </c>
       <c r="O45">
-        <v>0.99999999975717624</v>
+        <v>0.9999999971050425</v>
       </c>
       <c r="P45">
-        <v>0.99999999976606002</v>
+        <v>0.99999999723515287</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -2980,28 +2980,28 @@
         <v>0.16666666666666663</v>
       </c>
       <c r="I46">
-        <v>0.16173570019723862</v>
+        <v>0.17835671342685369</v>
       </c>
       <c r="J46">
-        <v>0.15662052884853894</v>
+        <v>0.20053730825894792</v>
       </c>
       <c r="K46">
-        <v>2.7937273364051777E-2</v>
+        <v>0.15111477872139586</v>
       </c>
       <c r="L46">
-        <v>8.3599790679698555E-3</v>
+        <v>0.18201710477389094</v>
       </c>
       <c r="M46">
-        <v>2.6722874831002167E-3</v>
+        <v>6.3880160948125736E-2</v>
       </c>
       <c r="N46">
-        <v>1.6461765499807049E-3</v>
+        <v>2.1228055340695655E-2</v>
       </c>
       <c r="O46">
-        <v>7.1823109548160662E-4</v>
+        <v>1.8777532417946743E-2</v>
       </c>
       <c r="P46">
-        <v>1.7309894858269788E-4</v>
+        <v>3.100101787180305E-3</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -3018,31 +3018,31 @@
         <v>102</v>
       </c>
       <c r="H47">
-        <v>0.9999999953975407</v>
+        <v>0.99999998653134092</v>
       </c>
       <c r="I47">
-        <v>0.99999999964094288</v>
+        <v>0.99999999778684001</v>
       </c>
       <c r="J47">
-        <v>0.9999999999868957</v>
+        <v>0.99999999957263108</v>
       </c>
       <c r="K47">
-        <v>0.99999999999229161</v>
+        <v>0.99999999850420873</v>
       </c>
       <c r="L47">
-        <v>0.99999999999383338</v>
+        <v>0.99999999976235088</v>
       </c>
       <c r="M47">
-        <v>0.99999999999525102</v>
+        <v>0.99999999985828258</v>
       </c>
       <c r="N47">
-        <v>0.99999999999991951</v>
+        <v>0.99999999989748101</v>
       </c>
       <c r="O47">
-        <v>0.99999999999996614</v>
+        <v>0.9999999999908582</v>
       </c>
       <c r="P47">
-        <v>0.99999999999997091</v>
+        <v>0.99999999999246547</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -3059,31 +3059,31 @@
         <v>104</v>
       </c>
       <c r="H48">
-        <v>0.99999993458194192</v>
+        <v>0.99999994450487251</v>
       </c>
       <c r="I48">
-        <v>0.99999999239324866</v>
+        <v>0.99999998854294092</v>
       </c>
       <c r="J48">
-        <v>0.99999999923932492</v>
+        <v>0.99999999770858816</v>
       </c>
       <c r="K48">
-        <v>0.99999999945284768</v>
+        <v>0.99999999331671541</v>
       </c>
       <c r="L48">
-        <v>0.99999999945284768</v>
+        <v>0.99999999867191136</v>
       </c>
       <c r="M48">
-        <v>0.99999999955417207</v>
+        <v>0.99999999907033799</v>
       </c>
       <c r="N48">
-        <v>0.9999999999954966</v>
+        <v>0.99999999930939398</v>
       </c>
       <c r="O48">
-        <v>0.999999999997641</v>
+        <v>0.99999999993870359</v>
       </c>
       <c r="P48">
-        <v>0.99999999999744027</v>
+        <v>0.99999999994203503</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -3103,31 +3103,31 @@
         <v>0.99978980684243202</v>
       </c>
       <c r="I49">
-        <v>0.99994908573467078</v>
+        <v>0.99993334382079946</v>
       </c>
       <c r="J49">
-        <v>0.99998662371630509</v>
+        <v>0.99996393899644431</v>
       </c>
       <c r="K49">
-        <v>0.99998028770682301</v>
+        <v>0.01</v>
       </c>
       <c r="L49">
-        <v>0.99995994034836166</v>
+        <v>3.0873493975903624E-2</v>
       </c>
       <c r="M49">
-        <v>0.99995892622162141</v>
+        <v>3.282089820457109E-2</v>
       </c>
       <c r="N49">
-        <v>0.99998910254627527</v>
+        <v>3.2036467771064357E-2</v>
       </c>
       <c r="O49">
-        <v>0.99999284851920367</v>
+        <v>8.2588349274824738E-2</v>
       </c>
       <c r="P49">
-        <v>0.99999103548398738</v>
+        <v>4.5164059859830588E-2</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -3141,31 +3141,31 @@
         <v>108</v>
       </c>
       <c r="H50">
-        <v>0.99999981854037723</v>
+        <v>0.99999922945478148</v>
       </c>
       <c r="I50">
-        <v>0.99999997121674511</v>
+        <v>0.99999981106812974</v>
       </c>
       <c r="J50">
-        <v>0.99999999736491318</v>
+        <v>0.9999999527670258</v>
       </c>
       <c r="K50">
-        <v>0.99999999824327546</v>
+        <v>0.99999984124474328</v>
       </c>
       <c r="L50">
-        <v>0.99999999820589835</v>
+        <v>0.99999995520271945</v>
       </c>
       <c r="M50">
-        <v>0.9999999986067083</v>
+        <v>0.99999997106016336</v>
       </c>
       <c r="N50">
-        <v>0.99999999979733944</v>
+        <v>0.99999997824522602</v>
       </c>
       <c r="O50">
-        <v>0.99999999990409816</v>
+        <v>0.99999999527692396</v>
       </c>
       <c r="P50">
-        <v>0.99999999991795074</v>
+        <v>0.99999999631600067</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -3182,31 +3182,31 @@
         <v>110</v>
       </c>
       <c r="H51">
-        <v>0.99999677759572714</v>
+        <v>0.99999792735588633</v>
       </c>
       <c r="I51">
-        <v>0.99999968815351747</v>
+        <v>0.99999956662824763</v>
       </c>
       <c r="J51">
-        <v>0.99999994764619748</v>
+        <v>0.99999987028324566</v>
       </c>
       <c r="K51">
-        <v>0.9999999526802168</v>
+        <v>0.99999951165474699</v>
       </c>
       <c r="L51">
-        <v>0.99999993578029533</v>
+        <v>0.9999998924743988</v>
       </c>
       <c r="M51">
-        <v>0.99999994794823865</v>
+        <v>0.99999990901679747</v>
       </c>
       <c r="N51">
-        <v>0.99999999470660028</v>
+        <v>0.99999992944159666</v>
       </c>
       <c r="O51">
-        <v>0.99999999711269094</v>
+        <v>0.99999998507418308</v>
       </c>
       <c r="P51">
-        <v>0.99999999742997769</v>
+        <v>0.99999998261581324</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -3220,31 +3220,31 @@
         <v>112</v>
       </c>
       <c r="H52">
-        <v>0.9999978353169483</v>
+        <v>0.99999901787786127</v>
       </c>
       <c r="I52">
-        <v>0.9999996304193034</v>
+        <v>0.99999977679025365</v>
       </c>
       <c r="J52">
-        <v>0.99999993007930676</v>
+        <v>0.99999995421337728</v>
       </c>
       <c r="K52">
-        <v>0.99999994533472991</v>
+        <v>0.9999998736289315</v>
       </c>
       <c r="L52">
-        <v>0.99999994305701045</v>
+        <v>0.99999997326765588</v>
       </c>
       <c r="M52">
-        <v>0.99999994962735517</v>
+        <v>0.99999998037993076</v>
       </c>
       <c r="N52">
-        <v>0.99999999111070936</v>
+        <v>0.99999998368231857</v>
       </c>
       <c r="O52">
-        <v>0.99999999512522775</v>
+        <v>0.99999999835857634</v>
       </c>
       <c r="P52">
-        <v>0.99999999532021866</v>
+        <v>0.99999999826531361</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -3261,31 +3261,31 @@
         <v>114</v>
       </c>
       <c r="H53">
-        <v>0.99999779605777184</v>
+        <v>0.99999867671539544</v>
       </c>
       <c r="I53">
-        <v>0.99999959683911033</v>
+        <v>0.99999966917852046</v>
       </c>
       <c r="J53">
-        <v>0.9999999160081211</v>
+        <v>0.99999993758083616</v>
       </c>
       <c r="K53">
-        <v>0.99999993586074565</v>
+        <v>0.9999997985563629</v>
       </c>
       <c r="L53">
-        <v>0.99999993970910073</v>
+        <v>0.99999995128486463</v>
       </c>
       <c r="M53">
-        <v>0.99999995199057967</v>
+        <v>0.99999996892310272</v>
       </c>
       <c r="N53">
-        <v>0.99999998499705556</v>
+        <v>0.99999997602639334</v>
       </c>
       <c r="O53">
-        <v>0.99999999237945669</v>
+        <v>0.99999999634548664</v>
       </c>
       <c r="P53">
-        <v>0.99999999283668917</v>
+        <v>0.99999999634548664</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -3302,31 +3302,31 @@
         <v>116</v>
       </c>
       <c r="H54">
-        <v>0.99999981934366766</v>
+        <v>0.99999987205692631</v>
       </c>
       <c r="I54">
-        <v>0.99999998153876601</v>
+        <v>0.99999997288162834</v>
       </c>
       <c r="J54">
-        <v>0.99999999812503093</v>
+        <v>0.99999999426766117</v>
       </c>
       <c r="K54">
-        <v>0.99999999883751911</v>
+        <v>0.99999997993681444</v>
       </c>
       <c r="L54">
-        <v>0.99999999902245928</v>
+        <v>0.99999999561460418</v>
       </c>
       <c r="M54">
-        <v>0.99999999935184802</v>
+        <v>0.99999999699427922</v>
       </c>
       <c r="N54">
-        <v>0.99999999998901434</v>
+        <v>0.99999999814352536</v>
       </c>
       <c r="O54">
-        <v>0.9999999999954825</v>
+        <v>0.99999999967326048</v>
       </c>
       <c r="P54">
-        <v>0.99999999999666311</v>
+        <v>0.99999999973116371</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -3343,31 +3343,31 @@
         <v>118</v>
       </c>
       <c r="H55">
-        <v>0.99937145402176808</v>
+        <v>0.99974845252226319</v>
       </c>
       <c r="I55">
-        <v>0.99979877928296457</v>
+        <v>0.99990766202115566</v>
       </c>
       <c r="J55">
-        <v>0.99992093934520365</v>
+        <v>0.99995111306337858</v>
       </c>
       <c r="K55">
-        <v>0.99990623176540494</v>
+        <v>0.99987445908264172</v>
       </c>
       <c r="L55">
-        <v>0.99988390858709342</v>
+        <v>0.99995922810143045</v>
       </c>
       <c r="M55">
-        <v>0.99987068469336438</v>
+        <v>0.99994750679591293</v>
       </c>
       <c r="N55">
-        <v>0.999957770916025</v>
+        <v>0.99994539025004825</v>
       </c>
       <c r="O55">
-        <v>0.99996888348706525</v>
+        <v>0.99998014121898293</v>
       </c>
       <c r="P55">
-        <v>0.9999618306800111</v>
+        <v>0.99997021212424986</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -3384,31 +3384,31 @@
         <v>120</v>
       </c>
       <c r="H56">
-        <v>0.99999998924245159</v>
+        <v>0.99999997698211773</v>
       </c>
       <c r="I56">
-        <v>0.99999999860784661</v>
+        <v>0.99999999390254768</v>
       </c>
       <c r="J56">
-        <v>0.99999999991613531</v>
+        <v>0.99999999862315603</v>
       </c>
       <c r="K56">
-        <v>0.99999999994456401</v>
+        <v>0.99999999653239291</v>
       </c>
       <c r="L56">
-        <v>0.99999999994678157</v>
+        <v>0.99999999947776996</v>
       </c>
       <c r="M56">
-        <v>0.99999999996008626</v>
+        <v>0.99999999961544883</v>
       </c>
       <c r="N56">
-        <v>0.99999999999959688</v>
+        <v>0.9999999997187079</v>
       </c>
       <c r="O56">
-        <v>0.99999999999978884</v>
+        <v>0.99999999997561051</v>
       </c>
       <c r="P56">
-        <v>0.99999999999978006</v>
+        <v>0.99999999997639721</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -3425,31 +3425,31 @@
         <v>122</v>
       </c>
       <c r="H57">
-        <v>0.99999691136411473</v>
+        <v>0.99999852010502355</v>
       </c>
       <c r="I57">
-        <v>0.9999995219955794</v>
+        <v>0.99999951742506987</v>
       </c>
       <c r="J57">
-        <v>0.99999989523186872</v>
+        <v>0.9999998367760744</v>
       </c>
       <c r="K57">
-        <v>0.99999992897075607</v>
+        <v>0.99999956682892965</v>
       </c>
       <c r="L57">
-        <v>0.99999993039134083</v>
+        <v>0.99999986695455989</v>
       </c>
       <c r="M57">
-        <v>0.99999994199278341</v>
+        <v>0.99999990116624116</v>
       </c>
       <c r="N57">
-        <v>0.99999999941406847</v>
+        <v>0.99999992367293689</v>
       </c>
       <c r="O57">
-        <v>0.99999999962262043</v>
+        <v>0.99999998768918263</v>
       </c>
       <c r="P57">
-        <v>0.99999999963016806</v>
+        <v>0.99999998823633018</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -3466,31 +3466,31 @@
         <v>124</v>
       </c>
       <c r="H58">
-        <v>0.99996847105877329</v>
+        <v>0.99997707598212371</v>
       </c>
       <c r="I58">
-        <v>0.99999258124672485</v>
+        <v>0.99999448932281987</v>
       </c>
       <c r="J58">
-        <v>0.99999833220866452</v>
+        <v>0.99999816310085821</v>
       </c>
       <c r="K58">
-        <v>0.99999833220866452</v>
+        <v>0.99999500194139057</v>
       </c>
       <c r="L58">
-        <v>0.9999982627174796</v>
+        <v>0.99999879853904194</v>
       </c>
       <c r="M58">
-        <v>0.99999875406949945</v>
+        <v>0.99999904349686708</v>
       </c>
       <c r="N58">
-        <v>0.99999989617233975</v>
+        <v>0.99999932139961578</v>
       </c>
       <c r="O58">
-        <v>0.99999995256149743</v>
+        <v>0.99999979641978798</v>
       </c>
       <c r="P58">
-        <v>0.999999957832442</v>
+        <v>0.99999979179296594</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>126</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3522,28 +3522,28 @@
         <v>0.99</v>
       </c>
       <c r="I59">
-        <v>0.9987661489330818</v>
+        <v>0.99783666846944297</v>
       </c>
       <c r="J59">
-        <v>0.99</v>
+        <v>0.99946591385953532</v>
       </c>
       <c r="K59">
-        <v>0.99165275459098501</v>
+        <v>0.9979700695853263</v>
       </c>
       <c r="L59">
-        <v>0.99044288096303235</v>
+        <v>0.99962238875299425</v>
       </c>
       <c r="M59">
-        <v>0.99330101741209209</v>
+        <v>0.99974347827159382</v>
       </c>
       <c r="N59">
-        <v>0.99988570524090215</v>
+        <v>0.99982484332440758</v>
       </c>
       <c r="O59">
-        <v>0.99995407485854826</v>
+        <v>0.99997991522827934</v>
       </c>
       <c r="P59">
-        <v>0.99996252054502222</v>
+        <v>0.99997991522827934</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -3560,31 +3560,31 @@
         <v>128</v>
       </c>
       <c r="H60">
-        <v>0.99999981649629111</v>
+        <v>0.99999812267501975</v>
       </c>
       <c r="I60">
-        <v>0.99999997691012565</v>
+        <v>0.99999958182747484</v>
       </c>
       <c r="J60">
-        <v>0.99999999810220208</v>
+        <v>0.99999990800201444</v>
       </c>
       <c r="K60">
-        <v>0.99999999877768952</v>
+        <v>0.99999964594723922</v>
       </c>
       <c r="L60">
-        <v>0.99999999885102808</v>
+        <v>0.99999990407435047</v>
       </c>
       <c r="M60">
-        <v>0.99999999927084482</v>
+        <v>0.99999994506821555</v>
       </c>
       <c r="N60">
-        <v>0.99999999996471833</v>
+        <v>0.999999963499274</v>
       </c>
       <c r="O60">
-        <v>0.99999999998629563</v>
+        <v>0.99999999312648646</v>
       </c>
       <c r="P60">
-        <v>0.99999999998838118</v>
+        <v>0.99999999427207198</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -3601,31 +3601,31 @@
         <v>130</v>
       </c>
       <c r="H61">
-        <v>0.99999517167400709</v>
+        <v>0.99999839640210175</v>
       </c>
       <c r="I61">
-        <v>0.99999903433107129</v>
+        <v>0.99999958855004878</v>
       </c>
       <c r="J61">
-        <v>0.99999981730573528</v>
+        <v>0.99999989373143705</v>
       </c>
       <c r="K61">
-        <v>0.99999984488222393</v>
+        <v>0.99999972206688303</v>
       </c>
       <c r="L61">
-        <v>0.99999983168071327</v>
+        <v>0.99999992165642115</v>
       </c>
       <c r="M61">
-        <v>0.99999987376052968</v>
+        <v>0.99999995153320831</v>
       </c>
       <c r="N61">
-        <v>0.99999996055016205</v>
+        <v>0.9999999668155295</v>
       </c>
       <c r="O61">
-        <v>0.99999998027508052</v>
+        <v>0.99999999419271746</v>
       </c>
       <c r="P61">
-        <v>0.99999997370010751</v>
+        <v>0.99999999467665768</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -3642,31 +3642,31 @@
         <v>132</v>
       </c>
       <c r="H62">
-        <v>0.24645625868145465</v>
+        <v>0.30492507105888389</v>
       </c>
       <c r="I62">
-        <v>0.1394379077760094</v>
+        <v>0.20734405508815806</v>
       </c>
       <c r="J62">
-        <v>6.2699423300580967E-2</v>
+        <v>0.12333181561371805</v>
       </c>
       <c r="K62">
-        <v>1.8242583880998257E-2</v>
+        <v>0.17816504673491379</v>
       </c>
       <c r="L62">
-        <v>8.0638775519257348E-3</v>
+        <v>0.12485008099533522</v>
       </c>
       <c r="M62">
-        <v>2.1216482545526149E-3</v>
+        <v>2.0950872565519092E-2</v>
       </c>
       <c r="N62">
-        <v>5.0002260914456056E-4</v>
+        <v>5.6669878576694633E-3</v>
       </c>
       <c r="O62">
-        <v>6.6465388910469023E-5</v>
+        <v>2.6802648992389029E-3</v>
       </c>
       <c r="P62">
-        <v>2.0738149658063757E-5</v>
+        <v>1.1257340150548866E-3</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -3680,31 +3680,31 @@
         <v>134</v>
       </c>
       <c r="H63">
-        <v>0.99999957062147504</v>
+        <v>0.99999956821210312</v>
       </c>
       <c r="I63">
-        <v>0.99999993045274915</v>
+        <v>0.99999991498473695</v>
       </c>
       <c r="J63">
-        <v>0.99999998969670301</v>
+        <v>0.99999998140290991</v>
       </c>
       <c r="K63">
-        <v>0.99999999236792803</v>
+        <v>0.99999995069608827</v>
       </c>
       <c r="L63">
-        <v>0.99999999356511582</v>
+        <v>0.99999998774064847</v>
       </c>
       <c r="M63">
-        <v>0.99999999589933852</v>
+        <v>0.99999999038755394</v>
       </c>
       <c r="N63">
-        <v>0.99999999971719578</v>
+        <v>0.99999999373101345</v>
       </c>
       <c r="O63">
-        <v>0.99999999989394839</v>
+        <v>0.99999999901016001</v>
       </c>
       <c r="P63">
-        <v>0.99999999990926702</v>
+        <v>0.99999999912151694</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -3724,28 +3724,28 @@
         <v>0.99999967990233862</v>
       </c>
       <c r="I64">
-        <v>0.99999996396250468</v>
+        <v>0.99999992962390083</v>
       </c>
       <c r="J64">
-        <v>0.99999999477717449</v>
+        <v>0.99999998105258769</v>
       </c>
       <c r="K64">
-        <v>0.99999999645910131</v>
+        <v>0.99999993916883667</v>
       </c>
       <c r="L64">
-        <v>0.99999999704925102</v>
+        <v>0.99999998817171765</v>
       </c>
       <c r="M64">
-        <v>0.99999999772546433</v>
+        <v>0.99999999178034615</v>
       </c>
       <c r="N64">
-        <v>0.99999999976470311</v>
+        <v>0.99999999366401693</v>
       </c>
       <c r="O64">
-        <v>0.99999999988547494</v>
+        <v>0.99999999911590942</v>
       </c>
       <c r="P64">
-        <v>0.99999999989074051</v>
+        <v>0.99999999926892502</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -3762,31 +3762,31 @@
         <v>138</v>
       </c>
       <c r="H65">
-        <v>0.99997824644557243</v>
+        <v>0.99996981688417819</v>
       </c>
       <c r="I65">
-        <v>0.99999244657523001</v>
+        <v>0.99999042446937436</v>
       </c>
       <c r="J65">
-        <v>0.99999794977342238</v>
+        <v>0.99999676318039799</v>
       </c>
       <c r="K65">
-        <v>0.99999848930591717</v>
+        <v>0.99999391871986387</v>
       </c>
       <c r="L65">
-        <v>0.99999874108794728</v>
+        <v>0.99999795872289632</v>
       </c>
       <c r="M65">
-        <v>0.99999895090640267</v>
+        <v>0.99999846435956741</v>
       </c>
       <c r="N65">
-        <v>0.99999958036229697</v>
+        <v>0.99999880073754444</v>
       </c>
       <c r="O65">
-        <v>0.99999971782978159</v>
+        <v>0.99999961150621353</v>
       </c>
       <c r="P65">
-        <v>0.99999964728725188</v>
+        <v>0.99999964792749307</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -3803,31 +3803,31 @@
         <v>140</v>
       </c>
       <c r="H66">
-        <v>0.99999876862122516</v>
+        <v>0.99999596138521574</v>
       </c>
       <c r="I66">
-        <v>0.99999978769309839</v>
+        <v>0.99999917765497826</v>
       </c>
       <c r="J66">
-        <v>0.99999997641033977</v>
+        <v>0.99999970838813546</v>
       </c>
       <c r="K66">
-        <v>0.99999997952595521</v>
+        <v>0.99999881532785828</v>
       </c>
       <c r="L66">
-        <v>0.99999997824632747</v>
+        <v>0.99999970522216253</v>
       </c>
       <c r="M66">
-        <v>0.99999998277834246</v>
+        <v>0.9999997802565046</v>
       </c>
       <c r="N66">
-        <v>0.99999999758292524</v>
+        <v>0.99999981007883043</v>
       </c>
       <c r="O66">
-        <v>0.99999999874830059</v>
+        <v>0.99999995683609144</v>
       </c>
       <c r="P66">
-        <v>0.99999999893672842</v>
+        <v>0.99999995291209998</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -3844,31 +3844,31 @@
         <v>142</v>
       </c>
       <c r="H67">
-        <v>0.88030352052717697</v>
+        <v>0.88553927634660812</v>
       </c>
       <c r="I67">
-        <v>0.89921193316359915</v>
+        <v>0.88819135526660387</v>
       </c>
       <c r="J67">
-        <v>0.91327469850924892</v>
+        <v>0.85540011165882046</v>
       </c>
       <c r="K67">
-        <v>0.77828133215731576</v>
+        <v>0.79132206555867102</v>
       </c>
       <c r="L67">
-        <v>0.58849255386244859</v>
+        <v>0.80688654962203044</v>
       </c>
       <c r="M67">
-        <v>0.42483044334338965</v>
+        <v>0.74070391457414475</v>
       </c>
       <c r="N67">
-        <v>0.44449667048960867</v>
+        <v>0.61510262385482184</v>
       </c>
       <c r="O67">
-        <v>0.35902303205613723</v>
+        <v>0.5794198736086853</v>
       </c>
       <c r="P67">
-        <v>0.19303899874079974</v>
+        <v>0.38030173946939305</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -3885,31 +3885,31 @@
         <v>144</v>
       </c>
       <c r="H68">
-        <v>0.99999497167690343</v>
+        <v>0.999993504159161</v>
       </c>
       <c r="I68">
-        <v>0.99999936729431271</v>
+        <v>0.99</v>
       </c>
       <c r="J68">
-        <v>0.99999986578963584</v>
+        <v>0.99698568198944992</v>
       </c>
       <c r="K68">
-        <v>0.99999986305064914</v>
+        <v>0.99055462765651103</v>
       </c>
       <c r="L68">
-        <v>0.9999998544913159</v>
+        <v>0.99768833383842304</v>
       </c>
       <c r="M68">
-        <v>0.99999987048127914</v>
+        <v>0.99827574335809244</v>
       </c>
       <c r="N68">
-        <v>0.99999998920677191</v>
+        <v>0.99862011883262047</v>
       </c>
       <c r="O68">
-        <v>0.99999999483802127</v>
+        <v>0.99966375683955522</v>
       </c>
       <c r="P68">
-        <v>0.99999999483802127</v>
+        <v>0.9996984106285326</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -3926,31 +3926,31 @@
         <v>146</v>
       </c>
       <c r="H69">
-        <v>0.9999990888069975</v>
+        <v>0.99999851409102902</v>
       </c>
       <c r="I69">
-        <v>0.99999984918173324</v>
+        <v>0.99999971337762128</v>
       </c>
       <c r="J69">
-        <v>0.99999998074660168</v>
+        <v>0.99999990761756241</v>
       </c>
       <c r="K69">
-        <v>0.99999998521614042</v>
+        <v>0.99999971100884177</v>
       </c>
       <c r="L69">
-        <v>0.99999998844170968</v>
+        <v>0.99999991989917314</v>
       </c>
       <c r="M69">
-        <v>0.99999999159397068</v>
+        <v>0.99999994290685623</v>
       </c>
       <c r="N69">
-        <v>0.99999999943959805</v>
+        <v>0.99999996248164769</v>
       </c>
       <c r="O69">
-        <v>0.99999999977116927</v>
+        <v>0.99999999191912392</v>
       </c>
       <c r="P69">
-        <v>0.99999999980350407</v>
+        <v>0.99999999368391301</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -3967,7 +3967,7 @@
         <v>148</v>
       </c>
       <c r="D70">
-        <v>0.79999999999999993</v>
+        <v>0.96969696969696961</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3982,28 +3982,28 @@
         <v>0.99</v>
       </c>
       <c r="I70">
-        <v>0.99767441860465123</v>
+        <v>0.99789473684210528</v>
       </c>
       <c r="J70">
-        <v>0.99966711051930757</v>
+        <v>0.99957290053921311</v>
       </c>
       <c r="K70">
-        <v>0.99975031210986265</v>
+        <v>0.99908929530666912</v>
       </c>
       <c r="L70">
-        <v>0.99978799285771491</v>
+        <v>0.99978104283067604</v>
       </c>
       <c r="M70">
-        <v>0.99983038709434247</v>
+        <v>0.99984885117224376</v>
       </c>
       <c r="N70">
-        <v>0.99996008590400431</v>
+        <v>0.9998855747221993</v>
       </c>
       <c r="O70">
-        <v>0.9999821276227735</v>
+        <v>0.99998325320156578</v>
       </c>
       <c r="P70">
-        <v>0.99998176288703289</v>
+        <v>0.99998482319009119</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -4026,37 +4026,37 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>0.83333333333333337</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G71">
-        <v>0.83333333333333337</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="H71">
-        <v>0.83333333333333337</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="I71">
-        <v>0.97791798107255523</v>
+        <v>0.98727735368956748</v>
       </c>
       <c r="J71">
-        <v>0.9982951316537223</v>
+        <v>0.99649778192855476</v>
       </c>
       <c r="K71">
-        <v>0.99887662784945896</v>
+        <v>0.9893513756284138</v>
       </c>
       <c r="L71">
-        <v>0.9989096321806854</v>
+        <v>0.99751790068351387</v>
       </c>
       <c r="M71">
-        <v>0.99925984814618418</v>
+        <v>0.99834389691823344</v>
       </c>
       <c r="N71">
-        <v>0.99993012751605648</v>
+        <v>0.9987765016308473</v>
       </c>
       <c r="O71">
-        <v>0.99997648413160811</v>
+        <v>0.99976079997425404</v>
       </c>
       <c r="P71">
-        <v>0.9999830799343099</v>
+        <v>0.99979966219130623</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -4070,31 +4070,31 @@
         <v>152</v>
       </c>
       <c r="H72">
-        <v>0.99899121149670156</v>
+        <v>0.99146172974649827</v>
       </c>
       <c r="I72">
-        <v>0.99952897861261514</v>
+        <v>0.99433626680208109</v>
       </c>
       <c r="J72">
-        <v>0.99975089891460689</v>
+        <v>0.99486216596390864</v>
       </c>
       <c r="K72">
-        <v>0.99930835883135838</v>
+        <v>0.98916025143899089</v>
       </c>
       <c r="L72">
-        <v>0.998218239626388</v>
+        <v>0.99374233555807401</v>
       </c>
       <c r="M72">
-        <v>0.9967752277620805</v>
+        <v>0.98961388780012527</v>
       </c>
       <c r="N72">
-        <v>0.99829017290795408</v>
+        <v>0.98186360119958105</v>
       </c>
       <c r="O72">
-        <v>0.99789857821388817</v>
+        <v>0.98507025218883437</v>
       </c>
       <c r="P72">
-        <v>0.99535869509982133</v>
+        <v>0.96793073931284812</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>154</v>
       </c>
       <c r="D73">
-        <v>0.99989798000408081</v>
+        <v>0.99908256880733948</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4126,28 +4126,28 @@
         <v>0.99</v>
       </c>
       <c r="I73">
-        <v>0.99887155658811821</v>
+        <v>0.99730081457560127</v>
       </c>
       <c r="J73">
-        <v>0.99994015096040112</v>
+        <v>0.99920893171286973</v>
       </c>
       <c r="K73">
-        <v>0.99995694996758588</v>
+        <v>0.99715799952908679</v>
       </c>
       <c r="L73">
-        <v>0.99995515629667375</v>
+        <v>0.99944825810211446</v>
       </c>
       <c r="M73">
-        <v>0.99996816055657678</v>
+        <v>0.99959365822357793</v>
       </c>
       <c r="N73">
-        <v>0.99999843407832723</v>
+        <v>0.99970198373823527</v>
       </c>
       <c r="O73">
-        <v>0.99999930403420667</v>
+        <v>0.9999563767662013</v>
       </c>
       <c r="P73">
-        <v>0.99999941628668843</v>
+        <v>0.99995492272395514</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -4161,31 +4161,31 @@
         <v>156</v>
       </c>
       <c r="H74">
-        <v>0.99999172391910196</v>
+        <v>0.99999549751734762</v>
       </c>
       <c r="I74">
-        <v>0.99999857541893733</v>
+        <v>0.99999900714136636</v>
       </c>
       <c r="J74">
-        <v>0.99999968633042668</v>
+        <v>0.99999968772973336</v>
       </c>
       <c r="K74">
-        <v>0.99999980039206704</v>
+        <v>0.99999923133507895</v>
       </c>
       <c r="L74">
-        <v>0.9999998442084358</v>
+        <v>0.9999998352859889</v>
       </c>
       <c r="M74">
-        <v>0.99999989908954945</v>
+        <v>0.99999986456847578</v>
       </c>
       <c r="N74">
-        <v>0.99999998812818125</v>
+        <v>0.99999990676814965</v>
       </c>
       <c r="O74">
-        <v>0.99999999506320403</v>
+        <v>0.99999998366741183</v>
       </c>
       <c r="P74">
-        <v>0.99999999564023223</v>
+        <v>0.99999998387156919</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -4199,7 +4199,7 @@
         <v>158</v>
       </c>
       <c r="D75">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4214,28 +4214,28 @@
         <v>0.99</v>
       </c>
       <c r="I75">
-        <v>0.99731363331094691</v>
+        <v>0.99767950672943051</v>
       </c>
       <c r="J75">
-        <v>0.99908914949333949</v>
+        <v>0.99930109516761878</v>
       </c>
       <c r="K75">
-        <v>0.99907019108521988</v>
+        <v>0.99810126136061317</v>
       </c>
       <c r="L75">
-        <v>0.99888021586781983</v>
+        <v>0.99943225945433567</v>
       </c>
       <c r="M75">
-        <v>0.9987586512928639</v>
+        <v>0.99952683810641452</v>
       </c>
       <c r="N75">
-        <v>0.99955630710470733</v>
+        <v>0.99953197876341215</v>
       </c>
       <c r="O75">
-        <v>0.99974113128682562</v>
+        <v>0.99988215746555986</v>
       </c>
       <c r="P75">
-        <v>0.99975665963002347</v>
+        <v>0.99986228314896319</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -4252,31 +4252,31 @@
         <v>160</v>
       </c>
       <c r="H76">
-        <v>0.99999616554031823</v>
+        <v>0.99999689121327118</v>
       </c>
       <c r="I76">
-        <v>0.99999936967584091</v>
+        <v>0.99999924459210121</v>
       </c>
       <c r="J76">
-        <v>0.99999987769823528</v>
+        <v>0.99999976716867667</v>
       </c>
       <c r="K76">
-        <v>0.99999989385129684</v>
+        <v>0.99999926568619468</v>
       </c>
       <c r="L76">
-        <v>0.99999988721700361</v>
+        <v>0.99</v>
       </c>
       <c r="M76">
-        <v>0.99999988456328637</v>
+        <v>0.99134746257048412</v>
       </c>
       <c r="N76">
-        <v>0.99999997648511174</v>
+        <v>0.99228069581625977</v>
       </c>
       <c r="O76">
-        <v>0.99999998615478536</v>
+        <v>0.99841690905125691</v>
       </c>
       <c r="P76">
-        <v>0.99999998407800317</v>
+        <v>0.99831036414553675</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -4293,31 +4293,31 @@
         <v>162</v>
       </c>
       <c r="H77">
-        <v>0.99999537605273248</v>
+        <v>0.99999856314808167</v>
       </c>
       <c r="I77">
-        <v>0.9999991592791343</v>
+        <v>0.99999971658392772</v>
       </c>
       <c r="J77">
-        <v>0.99999980598736704</v>
+        <v>0.99999993243059071</v>
       </c>
       <c r="K77">
-        <v>0.99999983832280059</v>
+        <v>0.99999975675016928</v>
       </c>
       <c r="L77">
-        <v>0.9999998350232665</v>
+        <v>0.99999996840910621</v>
       </c>
       <c r="M77">
-        <v>0.99999985496550625</v>
+        <v>0.99999997160010545</v>
       </c>
       <c r="N77">
-        <v>0.99999997626708004</v>
+        <v>0.99999997700008536</v>
       </c>
       <c r="O77">
-        <v>0.99999998693600722</v>
+        <v>0.99999999537014694</v>
       </c>
       <c r="P77">
-        <v>0.99999998478623631</v>
+        <v>0.99999999499763004</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -4334,31 +4334,31 @@
         <v>164</v>
       </c>
       <c r="H78">
-        <v>0.87686644202836495</v>
+        <v>0.83662822723143182</v>
       </c>
       <c r="I78">
-        <v>0.8547099212623257</v>
+        <v>0.80379872170299982</v>
       </c>
       <c r="J78">
-        <v>0.80436738554196474</v>
+        <v>0.76964284901982294</v>
       </c>
       <c r="K78">
-        <v>0.46321205349775951</v>
+        <v>0.76518044931627294</v>
       </c>
       <c r="L78">
-        <v>0.21867075277965514</v>
+        <v>0.74387835408818304</v>
       </c>
       <c r="M78">
+        <v>0.4075418587776562</v>
+      </c>
+      <c r="N78">
         <v>0.01</v>
       </c>
-      <c r="N78">
-        <v>4.9088359046283309E-3</v>
-      </c>
       <c r="O78">
-        <v>1.4289167629126269E-3</v>
+        <v>7.9774297110613897E-3</v>
       </c>
       <c r="P78">
-        <v>4.5109965571491921E-4</v>
+        <v>2.4414623253439954E-3</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -4375,28 +4375,28 @@
         <v>0.99999939332167831</v>
       </c>
       <c r="I79">
-        <v>0.99999992234513368</v>
+        <v>0.99999987966705128</v>
       </c>
       <c r="J79">
-        <v>0.99999998995842188</v>
+        <v>0.99999995459133673</v>
       </c>
       <c r="K79">
-        <v>0.99999999191775413</v>
+        <v>0.99999984409693998</v>
       </c>
       <c r="L79">
-        <v>0.99999999146874052</v>
+        <v>0.99999997505550708</v>
       </c>
       <c r="M79">
-        <v>0.99999999308859988</v>
+        <v>0.99999998201676088</v>
       </c>
       <c r="N79">
-        <v>0.99999999930885997</v>
+        <v>0.99999998543129986</v>
       </c>
       <c r="O79">
-        <v>0.99999999964328257</v>
+        <v>0.99999999891278357</v>
       </c>
       <c r="P79">
-        <v>0.99999999964823705</v>
+        <v>0.99999999894298408</v>
       </c>
       <c r="Q79">
         <v>0</v>
@@ -4413,31 +4413,31 @@
         <v>168</v>
       </c>
       <c r="H80">
-        <v>0.99999979038852316</v>
+        <v>0.99999984259399199</v>
       </c>
       <c r="I80">
-        <v>0.99999998118871003</v>
+        <v>0.99999996822997606</v>
       </c>
       <c r="J80">
-        <v>0.99999999746514534</v>
+        <v>0.99999999293999453</v>
       </c>
       <c r="K80">
-        <v>0.99999999813221241</v>
+        <v>0.99999997846698363</v>
       </c>
       <c r="L80">
-        <v>0.9999999983118073</v>
+        <v>0.99999999656996197</v>
       </c>
       <c r="M80">
-        <v>0.99999999869469647</v>
+        <v>0.99999999716938615</v>
       </c>
       <c r="N80">
-        <v>0.99999999995856181</v>
+        <v>0.99999999801294659</v>
       </c>
       <c r="O80">
-        <v>0.99999999998070987</v>
+        <v>0.999999999759145</v>
       </c>
       <c r="P80">
-        <v>0.99999999998158662</v>
+        <v>0.99999999976961684</v>
       </c>
       <c r="Q80">
         <v>1</v>
@@ -4454,31 +4454,31 @@
         <v>170</v>
       </c>
       <c r="H81">
-        <v>0.98454641413708743</v>
+        <v>0.97864163884757072</v>
       </c>
       <c r="I81">
-        <v>0.98608739476641583</v>
+        <v>0.97799891718357412</v>
       </c>
       <c r="J81">
-        <v>0.98625891265278887</v>
+        <v>0.97754132212858202</v>
       </c>
       <c r="K81">
-        <v>0.94783718757581681</v>
+        <v>0.97208339516951547</v>
       </c>
       <c r="L81">
-        <v>0.83028190899272725</v>
+        <v>0.97368233074939525</v>
       </c>
       <c r="M81">
-        <v>0.55732672938187389</v>
+        <v>0.9018536736448135</v>
       </c>
       <c r="N81">
-        <v>0.45632523685072357</v>
+        <v>0.71242808032556659</v>
       </c>
       <c r="O81">
-        <v>0.2389056966506915</v>
+        <v>0.70146494870152176</v>
       </c>
       <c r="P81">
-        <v>7.2271533016722525E-2</v>
+        <v>0.42653543079709499</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -4495,31 +4495,31 @@
         <v>172</v>
       </c>
       <c r="H82">
-        <v>0.99999558402576916</v>
+        <v>0.99999731688305082</v>
       </c>
       <c r="I82">
-        <v>0.99999912770570276</v>
+        <v>0.99999933793084328</v>
       </c>
       <c r="J82">
-        <v>0.99999979404148698</v>
+        <v>0.99999987663300993</v>
       </c>
       <c r="K82">
-        <v>0.99999979816065643</v>
+        <v>0.99999965457250461</v>
       </c>
       <c r="L82">
-        <v>0.99999973713947565</v>
+        <v>0.99999990620840484</v>
       </c>
       <c r="M82">
-        <v>0.99999970917559822</v>
+        <v>0.99999992705097995</v>
       </c>
       <c r="N82">
-        <v>0.99999990911735626</v>
+        <v>0.99999993849396274</v>
       </c>
       <c r="O82">
-        <v>0.99999993888925509</v>
+        <v>0.99999998974899318</v>
       </c>
       <c r="P82">
-        <v>0.99999992666710702</v>
+        <v>0.99999998974899318</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -4536,31 +4536,31 @@
         <v>174</v>
       </c>
       <c r="H83">
-        <v>0.99994408687017911</v>
+        <v>0.99998968578188252</v>
       </c>
       <c r="I83">
-        <v>0.99997923153615065</v>
+        <v>0.99999691272872804</v>
       </c>
       <c r="J83">
-        <v>0.99999307708286467</v>
+        <v>0.99</v>
       </c>
       <c r="K83">
-        <v>0.9999948078031623</v>
+        <v>0.98167067307692313</v>
       </c>
       <c r="L83">
-        <v>0.99999521503233813</v>
+        <v>0.99427799561000318</v>
       </c>
       <c r="M83">
-        <v>0.9999957671416545</v>
+        <v>0.99612794643326741</v>
       </c>
       <c r="N83">
-        <v>0.99999867722791758</v>
+        <v>0.99683995163825623</v>
       </c>
       <c r="O83">
-        <v>0.99999913335582657</v>
+        <v>0.99932553794497803</v>
       </c>
       <c r="P83">
-        <v>0.99999909724568525</v>
+        <v>0.9993887301115415</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -4580,28 +4580,28 @@
         <v>0.99999971200805982</v>
       </c>
       <c r="I84">
-        <v>0.99</v>
+        <v>0.99999996376259448</v>
       </c>
       <c r="J84">
-        <v>0.9987661489330818</v>
+        <v>0.99999998654039191</v>
       </c>
       <c r="K84">
-        <v>0.99899871792062078</v>
+        <v>0.99999994442484641</v>
       </c>
       <c r="L84">
-        <v>0.99881688202161178</v>
+        <v>0.99999999086435787</v>
       </c>
       <c r="M84">
-        <v>0.99902244052773392</v>
+        <v>0.99999999358902292</v>
       </c>
       <c r="N84">
-        <v>0.99998471092079266</v>
+        <v>0.99999999470397538</v>
       </c>
       <c r="O84">
-        <v>0.9999932195680501</v>
+        <v>0.99999999932260142</v>
       </c>
       <c r="P84">
-        <v>0.99999337910656916</v>
+        <v>0.99999999932260142</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -4618,31 +4618,31 @@
         <v>178</v>
       </c>
       <c r="H85">
-        <v>0.99999982240260699</v>
+        <v>0.99999751246425994</v>
       </c>
       <c r="I85">
-        <v>0.99999997496949111</v>
+        <v>0.99999938730531923</v>
       </c>
       <c r="J85">
-        <v>0.99999999680461582</v>
+        <v>0.99999986151415021</v>
       </c>
       <c r="K85">
-        <v>0.9999999978336378</v>
+        <v>0.99999953214255344</v>
       </c>
       <c r="L85">
-        <v>0.99999999804194184</v>
+        <v>0.9999998639393709</v>
       </c>
       <c r="M85">
-        <v>0.9999999987385586</v>
+        <v>0.99999991542176669</v>
       </c>
       <c r="N85">
-        <v>0.99999999989487987</v>
+        <v>0.99999994748410181</v>
       </c>
       <c r="O85">
-        <v>0.99999999996185152</v>
+        <v>0.99999999013124019</v>
       </c>
       <c r="P85">
-        <v>0.99999999996875077</v>
+        <v>0.99999999131120054</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -4659,28 +4659,28 @@
         <v>0.99999989845665582</v>
       </c>
       <c r="I86">
-        <v>0.99999998984566463</v>
+        <v>0.99999998018666303</v>
       </c>
       <c r="J86">
-        <v>0.99999999926299177</v>
+        <v>0.99999999302864062</v>
       </c>
       <c r="K86">
-        <v>0.99999999949749441</v>
+        <v>0.99999997756093739</v>
       </c>
       <c r="L86">
-        <v>0.99999999954903351</v>
+        <v>0.99999999540183127</v>
       </c>
       <c r="M86">
-        <v>0.99999999969061604</v>
+        <v>0.99999999686488505</v>
       </c>
       <c r="N86">
-        <v>0.99999999999437483</v>
+        <v>0.99999999784916538</v>
       </c>
       <c r="O86">
-        <v>0.99999999999733247</v>
+        <v>0.99999999987348032</v>
       </c>
       <c r="P86">
-        <v>0.99999999999770872</v>
+        <v>0.99999999989618904</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -4697,31 +4697,31 @@
         <v>182</v>
       </c>
       <c r="H87">
-        <v>0.34629662196479205</v>
+        <v>0.3177862782202488</v>
       </c>
       <c r="I87">
-        <v>0.25160054813472055</v>
+        <v>0.23866014861464863</v>
       </c>
       <c r="J87">
-        <v>0.15686098543531063</v>
+        <v>0.1477049677321125</v>
       </c>
       <c r="K87">
-        <v>5.3301761990963328E-2</v>
+        <v>0.17443166245172279</v>
       </c>
       <c r="L87">
-        <v>1.8666163241946081E-2</v>
+        <v>0.13860957297203022</v>
       </c>
       <c r="M87">
-        <v>5.9179742096109106E-3</v>
+        <v>3.2317869394110139E-2</v>
       </c>
       <c r="N87">
-        <v>2.1039907043307435E-3</v>
+        <v>1.073339462172547E-2</v>
       </c>
       <c r="O87">
-        <v>5.0761143252116736E-4</v>
+        <v>6.19998433084251E-3</v>
       </c>
       <c r="P87">
-        <v>1.692610900833273E-4</v>
+        <v>2.6528392073539389E-3</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -4738,31 +4738,31 @@
         <v>184</v>
       </c>
       <c r="H88">
-        <v>0.96704556406735054</v>
+        <v>0.97219471099099009</v>
       </c>
       <c r="I88">
-        <v>0.97197338478073469</v>
+        <v>0.97219471099099009</v>
       </c>
       <c r="J88">
-        <v>0.97546346211432589</v>
+        <v>0.96681817921255608</v>
       </c>
       <c r="K88">
-        <v>0.89297666400640652</v>
+        <v>0.93479924649569635</v>
       </c>
       <c r="L88">
-        <v>0.01</v>
+        <v>0.93980134903458745</v>
       </c>
       <c r="M88">
-        <v>3.2653061224489806E-3</v>
+        <v>0.8531925369292308</v>
       </c>
       <c r="N88">
-        <v>2.4509803921568636E-3</v>
+        <v>0.70709420866318418</v>
       </c>
       <c r="O88">
-        <v>1.2853470437017998E-3</v>
+        <v>0.7137665390767377</v>
       </c>
       <c r="P88">
-        <v>5.1453563159248783E-4</v>
+        <v>0.30558264345305319</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -4779,31 +4779,31 @@
         <v>186</v>
       </c>
       <c r="H89">
-        <v>0.99999998770408172</v>
+        <v>0.99999999780616344</v>
       </c>
       <c r="I89">
-        <v>0.99999999980787624</v>
+        <v>0.99999999983124332</v>
       </c>
       <c r="J89">
-        <v>0.9999999999967436</v>
+        <v>0.99999999997589195</v>
       </c>
       <c r="K89">
-        <v>0.99999999999824651</v>
+        <v>0.99999999990913113</v>
       </c>
       <c r="L89">
-        <v>0.99999999999868483</v>
+        <v>0.99999999998336198</v>
       </c>
       <c r="M89">
-        <v>0.99999999999935774</v>
+        <v>0.99999999999516964</v>
       </c>
       <c r="N89">
-        <v>0.99</v>
+        <v>0.99999999999808453</v>
       </c>
       <c r="O89">
-        <v>0.99771819737592704</v>
+        <v>0.99999999999989919</v>
       </c>
       <c r="P89">
-        <v>0.99883126369612862</v>
+        <v>0.99999999999993439</v>
       </c>
       <c r="Q89">
         <v>1</v>
@@ -4820,31 +4820,31 @@
         <v>188</v>
       </c>
       <c r="H90">
-        <v>0.99999991657661391</v>
+        <v>0.99999977994586287</v>
       </c>
       <c r="I90">
-        <v>0.99999999246498394</v>
+        <v>0.99999995679301557</v>
       </c>
       <c r="J90">
-        <v>0.99999999932444683</v>
+        <v>0.99999998600337092</v>
       </c>
       <c r="K90">
-        <v>0.99999999947184015</v>
+        <v>0.99999994961213712</v>
       </c>
       <c r="L90">
-        <v>0.9999999994029497</v>
+        <v>0.99999999118777239</v>
       </c>
       <c r="M90">
-        <v>0.99999999958206476</v>
+        <v>0.99999999324670397</v>
       </c>
       <c r="N90">
-        <v>0.99999999998651823</v>
+        <v>0.99999999518264882</v>
       </c>
       <c r="O90">
-        <v>0.9999999999947633</v>
+        <v>0.99999999938688255</v>
       </c>
       <c r="P90">
-        <v>0.99999999999566436</v>
+        <v>0.99999999943254037</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -4861,31 +4861,31 @@
         <v>190</v>
       </c>
       <c r="H91">
-        <v>0.99999998364960985</v>
+        <v>0.99999993775060059</v>
       </c>
       <c r="I91">
-        <v>0.99999999814695584</v>
+        <v>0.9999999864930541</v>
       </c>
       <c r="J91">
-        <v>0.99999999988731492</v>
+        <v>0.99999999724529398</v>
       </c>
       <c r="K91">
-        <v>0.99999999993238897</v>
+        <v>0.99999999076801238</v>
       </c>
       <c r="L91">
-        <v>0.99999999994034328</v>
+        <v>0.9999999978898314</v>
       </c>
       <c r="M91">
-        <v>0.9999999999645437</v>
+        <v>0.99999999881973622</v>
       </c>
       <c r="N91">
-        <v>0.99999999999767497</v>
+        <v>0.99999999925855221</v>
       </c>
       <c r="O91">
-        <v>0.9999999999990894</v>
+        <v>0.99999999990268507</v>
       </c>
       <c r="P91">
-        <v>0.99999999999927347</v>
+        <v>0.9999999999207434</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -4902,7 +4902,7 @@
         <v>192</v>
       </c>
       <c r="D92">
-        <v>0.75</v>
+        <v>0.96969696969696961</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4917,28 +4917,28 @@
         <v>0.99</v>
       </c>
       <c r="I92">
-        <v>0.99877495135836269</v>
+        <v>0.99756949718973109</v>
       </c>
       <c r="J92">
-        <v>0.99988276987726898</v>
+        <v>0.99945703814307052</v>
       </c>
       <c r="K92">
-        <v>0.9999204479905387</v>
+        <v>0.99840138166299142</v>
       </c>
       <c r="L92">
-        <v>0.99993574547090114</v>
+        <v>0.99969986922873533</v>
       </c>
       <c r="M92">
-        <v>0.99996208882908633</v>
+        <v>0.99981239715343939</v>
       </c>
       <c r="N92">
-        <v>0.99999661495715275</v>
+        <v>0.9998884107387338</v>
       </c>
       <c r="O92">
-        <v>0.99999862768257008</v>
+        <v>0.99998596224551184</v>
       </c>
       <c r="P92">
-        <v>0.99999885108282527</v>
+        <v>0.99998659314736749</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -4955,31 +4955,31 @@
         <v>194</v>
       </c>
       <c r="H93">
-        <v>0.87875485155736022</v>
+        <v>0.91919544095115013</v>
       </c>
       <c r="I93">
-        <v>0.86917456077160393</v>
+        <v>0.88680225002466473</v>
       </c>
       <c r="J93">
-        <v>0.8458772425013833</v>
+        <v>0.83546288282602343</v>
       </c>
       <c r="K93">
-        <v>0.4210851091079727</v>
+        <v>0.79929654669685424</v>
       </c>
       <c r="L93">
-        <v>0.1555958046783476</v>
+        <v>0.79018204865642327</v>
       </c>
       <c r="M93">
-        <v>5.0339875583323986E-2</v>
+        <v>0.52805587071054172</v>
       </c>
       <c r="N93">
-        <v>3.4132661703374513E-2</v>
+        <v>0.25503693772333491</v>
       </c>
       <c r="O93">
-        <v>1.4466861234575853E-2</v>
+        <v>0.2180290341204848</v>
       </c>
       <c r="P93">
-        <v>3.7049588599535983E-3</v>
+        <v>3.3678696159984464E-2</v>
       </c>
       <c r="Q93">
         <v>1</v>
@@ -4996,31 +4996,31 @@
         <v>196</v>
       </c>
       <c r="H94">
-        <v>0.99999990527532678</v>
+        <v>0.99999992069802635</v>
       </c>
       <c r="I94">
-        <v>0.9999999875878004</v>
+        <v>0.99999998242074362</v>
       </c>
       <c r="J94">
-        <v>0.99999999885561275</v>
+        <v>0.99999999515933513</v>
       </c>
       <c r="K94">
-        <v>0.99999999921699823</v>
+        <v>0.9999999854780055</v>
       </c>
       <c r="L94">
-        <v>0.99999999933745998</v>
+        <v>0.99999999642423243</v>
       </c>
       <c r="M94">
-        <v>0.9999999995986536</v>
+        <v>0.99999999782203242</v>
       </c>
       <c r="N94">
-        <v>0.99999999996479416</v>
+        <v>0.99999999866742784</v>
       </c>
       <c r="O94">
-        <v>0.99999999998709121</v>
+        <v>0.99999999976589948</v>
       </c>
       <c r="P94">
-        <v>0.99999999998936084</v>
+        <v>0.99999999976314535</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -5037,31 +5037,31 @@
         <v>198</v>
       </c>
       <c r="H95">
-        <v>7.4464352447853835E-2</v>
+        <v>7.9917698708047935E-2</v>
       </c>
       <c r="I95">
-        <v>3.7970064192287101E-2</v>
+        <v>4.2096658574646173E-2</v>
       </c>
       <c r="J95">
-        <v>1.4543232150141283E-2</v>
+        <v>1.9119781175128893E-2</v>
       </c>
       <c r="K95">
-        <v>6.4897748579359413E-3</v>
+        <v>3.4446044106755155E-2</v>
       </c>
       <c r="L95">
-        <v>3.5400059733657783E-3</v>
+        <v>2.099965543515531E-2</v>
       </c>
       <c r="M95">
-        <v>1.0589221646217551E-3</v>
+        <v>5.3339217479069206E-3</v>
       </c>
       <c r="N95">
-        <v>1.8343561490860247E-4</v>
+        <v>1.5535485453669878E-3</v>
       </c>
       <c r="O95">
-        <v>1.4875665444278305E-5</v>
+        <v>6.646079068579274E-4</v>
       </c>
       <c r="P95">
-        <v>5.5943192696704269E-6</v>
+        <v>2.499962502569747E-4</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -5078,31 +5078,31 @@
         <v>200</v>
       </c>
       <c r="H96">
-        <v>4.9521801783211375E-2</v>
+        <v>2.5402851766596877E-2</v>
       </c>
       <c r="I96">
-        <v>2.0927837581909775E-2</v>
+        <v>1.2211287062973879E-2</v>
       </c>
       <c r="J96">
-        <v>7.3799740931733771E-3</v>
+        <v>5.949290978881628E-3</v>
       </c>
       <c r="K96">
-        <v>2.4055000627482637E-3</v>
+        <v>8.1843666607524426E-3</v>
       </c>
       <c r="L96">
-        <v>1.1677501331905915E-3</v>
+        <v>3.8985020325035943E-3</v>
       </c>
       <c r="M96">
-        <v>3.3263753552313955E-4</v>
+        <v>1.1246099449135412E-3</v>
       </c>
       <c r="N96">
-        <v>5.4446744129533518E-5</v>
+        <v>3.2731598546424998E-4</v>
       </c>
       <c r="O96">
-        <v>5.8469144028034228E-6</v>
+        <v>1.314480773417127E-4</v>
       </c>
       <c r="P96">
-        <v>2.0915869905725888E-6</v>
+        <v>5.4860486107967864E-5</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -5119,31 +5119,31 @@
         <v>202</v>
       </c>
       <c r="H97">
-        <v>8.6465270584887496E-2</v>
+        <v>9.3662524023996122E-2</v>
       </c>
       <c r="I97">
-        <v>4.0283922216049241E-2</v>
+        <v>4.4674458403487716E-2</v>
       </c>
       <c r="J97">
-        <v>1.6585181084099915E-2</v>
+        <v>2.3944327289557629E-2</v>
       </c>
       <c r="K97">
-        <v>7.246827905321042E-3</v>
+        <v>3.6034637926610193E-2</v>
       </c>
       <c r="L97">
-        <v>3.8091021923403897E-3</v>
+        <v>2.1413388120230508E-2</v>
       </c>
       <c r="M97">
-        <v>1.1079264303316379E-3</v>
+        <v>5.1898152185174407E-3</v>
       </c>
       <c r="N97">
-        <v>2.5106645006353292E-4</v>
+        <v>1.5599814621118676E-3</v>
       </c>
       <c r="O97">
-        <v>0.01</v>
+        <v>6.4858380104397084E-4</v>
       </c>
       <c r="P97">
-        <v>3.3293697978596915E-3</v>
+        <v>2.87782161015492E-4</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -5160,31 +5160,31 @@
         <v>204</v>
       </c>
       <c r="H98">
-        <v>0.95907785516416577</v>
+        <v>0.98463258719383351</v>
       </c>
       <c r="I98">
-        <v>0.95907785516416577</v>
+        <v>0.98289642912807285</v>
       </c>
       <c r="J98">
-        <v>0.95716715599393709</v>
+        <v>0.98116042772335255</v>
       </c>
       <c r="K98">
-        <v>0.55662464051935678</v>
+        <v>0.96474397013918756</v>
       </c>
       <c r="L98">
-        <v>0.14264770294757093</v>
+        <v>0.9668969563264237</v>
       </c>
       <c r="M98">
-        <v>3.7912208433785843E-2</v>
+        <v>0.9043616334593878</v>
       </c>
       <c r="N98">
-        <v>2.7860585127418222E-2</v>
+        <v>0.74213044768433967</v>
       </c>
       <c r="O98">
-        <v>1.3677607591010769E-2</v>
+        <v>0.74423942226274142</v>
       </c>
       <c r="P98">
-        <v>3.9733665635914061E-3</v>
+        <v>0.01</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -5201,31 +5201,31 @@
         <v>206</v>
       </c>
       <c r="H99">
-        <v>0.44064447390387235</v>
+        <v>0.34364681694879123</v>
       </c>
       <c r="I99">
-        <v>0.32095803880391055</v>
+        <v>0.21007333609303216</v>
       </c>
       <c r="J99">
-        <v>0.19376759117829243</v>
+        <v>0.11736421403684434</v>
       </c>
       <c r="K99">
-        <v>6.8644087619263716E-2</v>
+        <v>0.13126759082025996</v>
       </c>
       <c r="L99">
-        <v>3.6068991187076863E-2</v>
+        <v>9.3351776587352928E-2</v>
       </c>
       <c r="M99">
-        <v>8.9191534764917254E-3</v>
+        <v>1.7485013535759032E-2</v>
       </c>
       <c r="N99">
-        <v>2.1130363735464004E-3</v>
+        <v>4.2529186267967469E-3</v>
       </c>
       <c r="O99">
-        <v>3.0241005631982578E-4</v>
+        <v>2.0137711238127319E-3</v>
       </c>
       <c r="P99">
-        <v>1.150225636021482E-4</v>
+        <v>6.6235337779066243E-4</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -5242,31 +5242,31 @@
         <v>208</v>
       </c>
       <c r="H100">
-        <v>0.12513147757011342</v>
+        <v>0.12351165243438104</v>
       </c>
       <c r="I100">
-        <v>7.5352491132973237E-2</v>
+        <v>6.4085352283527311E-2</v>
       </c>
       <c r="J100">
-        <v>3.3993991597431522E-2</v>
+        <v>3.4309723219401414E-2</v>
       </c>
       <c r="K100">
-        <v>1.0909450582569235E-2</v>
+        <v>4.5421776401821164E-2</v>
       </c>
       <c r="L100">
-        <v>4.3578228536647213E-3</v>
+        <v>2.8794232796390443E-2</v>
       </c>
       <c r="M100">
-        <v>1.1230776877555752E-3</v>
+        <v>5.6360400900774604E-3</v>
       </c>
       <c r="N100">
-        <v>3.4583125456260396E-4</v>
+        <v>1.4749326240000738E-3</v>
       </c>
       <c r="O100">
-        <v>3.3477998075932507E-5</v>
+        <v>6.970385617050917E-4</v>
       </c>
       <c r="P100">
-        <v>1.0623069104624548E-5</v>
+        <v>2.5468329434128563E-4</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -5283,31 +5283,31 @@
         <v>210</v>
       </c>
       <c r="H101">
-        <v>0.90523842699021984</v>
+        <v>0.79728800825167845</v>
       </c>
       <c r="I101">
-        <v>0.885719320921459</v>
+        <v>0.73639876275811755</v>
       </c>
       <c r="J101">
-        <v>0.86592756293641904</v>
+        <v>0.64117875532348101</v>
       </c>
       <c r="K101">
-        <v>0.01</v>
+        <v>0.54803103874484349</v>
       </c>
       <c r="L101">
-        <v>2.1154803384768541E-3</v>
+        <v>0.49054981529189173</v>
       </c>
       <c r="M101">
-        <v>4.4473306782717877E-4</v>
+        <v>0.20149883553188702</v>
       </c>
       <c r="N101">
-        <v>2.3952081628883623E-4</v>
+        <v>6.1695590303182377E-2</v>
       </c>
       <c r="O101">
-        <v>1.0368727481019257E-4</v>
+        <v>4.5846770020767064E-2</v>
       </c>
       <c r="P101">
-        <v>2.8280480276183549E-5</v>
+        <v>7.5296676373877497E-3</v>
       </c>
       <c r="Q101">
         <v>1</v>
@@ -5321,25 +5321,25 @@
         <v>75.280898876404507</v>
       </c>
       <c r="I102">
-        <v>75.280898876404507</v>
+        <v>76.404494382022463</v>
       </c>
       <c r="J102">
+        <v>78.651685393258433</v>
+      </c>
+      <c r="K102">
         <v>77.528089887640448</v>
       </c>
-      <c r="K102">
-        <v>82.022471910112358</v>
-      </c>
       <c r="L102">
-        <v>86.516853932584269</v>
+        <v>80.898876404494374</v>
       </c>
       <c r="M102">
-        <v>88.764044943820224</v>
+        <v>83.146067415730343</v>
       </c>
       <c r="N102">
-        <v>89.887640449438194</v>
+        <v>85.393258426966284</v>
       </c>
       <c r="O102">
-        <v>89.887640449438194</v>
+        <v>85.393258426966284</v>
       </c>
       <c r="P102">
         <v>89.887640449438194</v>
